--- a/Code/Results/Cases/Case_1_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_16/res_line/pl_mw.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3687562991028983</v>
+        <v>0.368756299103012</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02209939290422369</v>
+        <v>0.02209939290411</v>
       </c>
       <c r="E2">
-        <v>0.01314248260818385</v>
+        <v>0.01314248260815543</v>
       </c>
       <c r="F2">
-        <v>2.400334794046159</v>
+        <v>2.400334794046131</v>
       </c>
       <c r="G2">
         <v>1.922649003766495</v>
       </c>
       <c r="H2">
-        <v>0.1835470253032074</v>
+        <v>0.1835470253031808</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>3.679196572226772</v>
+        <v>3.679196572226743</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2.542454630990449</v>
+        <v>2.542454630990463</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -456,31 +456,31 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01867726551077808</v>
+        <v>0.01867726551067506</v>
       </c>
       <c r="E3">
-        <v>0.01500566756981003</v>
+        <v>0.01500566756978516</v>
       </c>
       <c r="F3">
         <v>2.060108862371848</v>
       </c>
       <c r="G3">
-        <v>1.649405557768262</v>
+        <v>1.649405557768233</v>
       </c>
       <c r="H3">
-        <v>0.1997809889433899</v>
+        <v>0.1997809889433633</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>3.174946416012446</v>
+        <v>3.17494641601246</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.184971551588916</v>
+        <v>2.184971551588902</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2916384562465453</v>
+        <v>0.2916384562465595</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -497,7 +497,7 @@
         <v>0.01688496767924974</v>
       </c>
       <c r="E4">
-        <v>0.01633024586131038</v>
+        <v>0.01633024586131127</v>
       </c>
       <c r="F4">
         <v>1.860995839557731</v>
@@ -506,13 +506,13 @@
         <v>1.489933077499998</v>
       </c>
       <c r="H4">
-        <v>0.2107330126832139</v>
+        <v>0.2107330126831837</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2.870032696348105</v>
+        <v>2.870032696348133</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2797100117812903</v>
+        <v>0.2797100117814182</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01622132456812864</v>
+        <v>0.01622132456802561</v>
       </c>
       <c r="E5">
-        <v>0.01691170127954766</v>
+        <v>0.01691170127954544</v>
       </c>
       <c r="F5">
-        <v>1.781965390701671</v>
+        <v>1.781965390701686</v>
       </c>
       <c r="G5">
         <v>1.426736673806346</v>
       </c>
       <c r="H5">
-        <v>0.2154296833287059</v>
+        <v>0.2154296833286971</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>2.746730316821356</v>
+        <v>2.74673031682137</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.883009092288447</v>
+        <v>1.883009092288489</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -570,10 +570,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01611486566325837</v>
+        <v>0.01611486566316955</v>
       </c>
       <c r="E6">
-        <v>0.01701066841843968</v>
+        <v>0.01701066841842858</v>
       </c>
       <c r="F6">
         <v>1.768960420704431</v>
@@ -582,19 +582,19 @@
         <v>1.416343078218688</v>
       </c>
       <c r="H6">
-        <v>0.2162232936977464</v>
+        <v>0.2162232936977713</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>2.7263074307414</v>
+        <v>2.726307430741414</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.868646366465711</v>
+        <v>1.868646366465669</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,31 +602,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2914775533923688</v>
+        <v>0.2914775533923972</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01687576073962305</v>
+        <v>0.01687576073951291</v>
       </c>
       <c r="E7">
-        <v>0.01633792341025142</v>
+        <v>0.01633792341026608</v>
       </c>
       <c r="F7">
-        <v>1.859921897569393</v>
+        <v>1.85992189756935</v>
       </c>
       <c r="G7">
-        <v>1.489073907088468</v>
+        <v>1.489073907088482</v>
       </c>
       <c r="H7">
-        <v>0.2107954249651716</v>
+        <v>0.2107954249651733</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2.86836622239106</v>
+        <v>2.868366222391103</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,25 +640,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3522490841857859</v>
+        <v>0.3522490841859138</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02084824575076638</v>
+        <v>0.02084824575086941</v>
       </c>
       <c r="E8">
-        <v>0.01374503484181044</v>
+        <v>0.01374503484180822</v>
       </c>
       <c r="F8">
-        <v>2.280767452854832</v>
+        <v>2.280767452854846</v>
       </c>
       <c r="G8">
-        <v>1.826520619352735</v>
+        <v>1.826520619352721</v>
       </c>
       <c r="H8">
-        <v>0.1889313866163498</v>
+        <v>0.1889313866163196</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4723128600567463</v>
+        <v>0.4723128600565758</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03167996373520765</v>
+        <v>0.03167996373521476</v>
       </c>
       <c r="E9">
-        <v>0.01029033271462954</v>
+        <v>0.01029033271462865</v>
       </c>
       <c r="F9">
-        <v>3.202387816153816</v>
+        <v>3.202387816153788</v>
       </c>
       <c r="G9">
-        <v>2.569931098075557</v>
+        <v>2.569931098075571</v>
       </c>
       <c r="H9">
-        <v>0.1545775933554161</v>
+        <v>0.1545775933554197</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>3.344364920125031</v>
+        <v>3.344364920125017</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.561662460256656</v>
+        <v>0.561662460256855</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04251558199828054</v>
+        <v>0.04251558199824501</v>
       </c>
       <c r="E10">
-        <v>0.009078888948835129</v>
+        <v>0.009078888948805819</v>
       </c>
       <c r="F10">
         <v>3.970008437930488</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.804072847889444</v>
+        <v>5.804072847889415</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4.069611423324076</v>
+        <v>4.069611423324062</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6027201882659767</v>
+        <v>0.602720188266062</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04837747400274139</v>
+        <v>0.04837747400260639</v>
       </c>
       <c r="E11">
-        <v>0.008912740479363634</v>
+        <v>0.008912740479322778</v>
       </c>
       <c r="F11">
-        <v>4.348178208482437</v>
+        <v>4.348178208482409</v>
       </c>
       <c r="G11">
-        <v>3.500767538181776</v>
+        <v>3.50076753818179</v>
       </c>
       <c r="H11">
         <v>0.1287917654528705</v>
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6183433875991682</v>
+        <v>0.6183433875991966</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.05076567067131066</v>
+        <v>0.05076567067121118</v>
       </c>
       <c r="E12">
-        <v>0.008915686353232921</v>
+        <v>0.008915686353151209</v>
       </c>
       <c r="F12">
-        <v>4.496562928538708</v>
+        <v>4.496562928538651</v>
       </c>
       <c r="G12">
-        <v>3.621769757270343</v>
+        <v>3.621769757270286</v>
       </c>
       <c r="H12">
-        <v>0.1264574450378646</v>
+        <v>0.1264574450378717</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.460256709288387</v>
+        <v>6.460256709288331</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>4.54765660740847</v>
+        <v>4.547656607408442</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6149750008492276</v>
+        <v>0.6149750008489718</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.05024319256298782</v>
+        <v>0.05024319256262544</v>
       </c>
       <c r="E13">
-        <v>0.008911927875819181</v>
+        <v>0.008911927875838721</v>
       </c>
       <c r="F13">
         <v>4.464356355901373</v>
       </c>
       <c r="G13">
-        <v>3.595498247152705</v>
+        <v>3.595498247152719</v>
       </c>
       <c r="H13">
-        <v>0.126947261227869</v>
+        <v>0.1269472612278868</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>4.518827030045628</v>
+        <v>4.518827030045614</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6040039004886637</v>
+        <v>0.6040039004884079</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04857034743129418</v>
+        <v>0.04857034743160682</v>
       </c>
       <c r="E14">
-        <v>0.00891159362440952</v>
+        <v>0.008911593624407743</v>
       </c>
       <c r="F14">
-        <v>4.360275384051761</v>
+        <v>4.360275384051704</v>
       </c>
       <c r="G14">
-        <v>3.510628681510767</v>
+        <v>3.510628681510795</v>
       </c>
       <c r="H14">
-        <v>0.1285939533473233</v>
+        <v>0.1285939533473481</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.29269983164852</v>
+        <v>6.292699831648548</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -912,16 +912,16 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04756878926674091</v>
+        <v>0.04756878926629327</v>
       </c>
       <c r="E15">
-        <v>0.008920320771459878</v>
+        <v>0.00892032077144389</v>
       </c>
       <c r="F15">
         <v>4.297231728789114</v>
       </c>
       <c r="G15">
-        <v>3.459245154182028</v>
+        <v>3.459245154182</v>
       </c>
       <c r="H15">
         <v>0.1296397773031543</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.214665365151433</v>
+        <v>6.214665365151376</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>4.368388905829917</v>
+        <v>4.368388905829931</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5589888580225875</v>
+        <v>0.5589888580225022</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04215399570375666</v>
+        <v>0.04215399570396983</v>
       </c>
       <c r="E16">
-        <v>0.009098336749342906</v>
+        <v>0.00909833674932603</v>
       </c>
       <c r="F16">
         <v>3.945958378660549</v>
@@ -962,19 +962,19 @@
         <v>3.173273810329476</v>
       </c>
       <c r="H16">
-        <v>0.1361753678049027</v>
+        <v>0.1361753678049062</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.773515649214119</v>
+        <v>5.77351564921409</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>4.047422505236781</v>
+        <v>4.047422505236767</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5356060308812118</v>
+        <v>0.5356060308813255</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03909283722966705</v>
+        <v>0.03909283722965995</v>
       </c>
       <c r="E17">
-        <v>0.009312880639054555</v>
+        <v>0.0093128806389986</v>
       </c>
       <c r="F17">
-        <v>3.738532791577882</v>
+        <v>3.738532791577853</v>
       </c>
       <c r="G17">
-        <v>3.004683381669011</v>
+        <v>3.004683381669025</v>
       </c>
       <c r="H17">
-        <v>0.1406409606862944</v>
+        <v>0.1406409606862837</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>3.854684195622312</v>
+        <v>3.854684195622326</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5221945119057523</v>
+        <v>0.5221945119053544</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03741743868609149</v>
+        <v>0.03741743868596359</v>
       </c>
       <c r="E18">
         <v>0.009471761296122594</v>
       </c>
       <c r="F18">
-        <v>3.621881526643222</v>
+        <v>3.621881526643193</v>
       </c>
       <c r="G18">
-        <v>2.909965414298696</v>
+        <v>2.909965414298725</v>
       </c>
       <c r="H18">
         <v>0.1433668676904247</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.356397473571803</v>
+        <v>5.35639747357186</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>3.745185878611352</v>
+        <v>3.745185878611323</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5176596222993055</v>
+        <v>0.5176596222994192</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03686392096619073</v>
+        <v>0.03686392096632574</v>
       </c>
       <c r="E19">
-        <v>0.009531367430398952</v>
+        <v>0.009531367430374083</v>
       </c>
       <c r="F19">
-        <v>3.582814248640688</v>
+        <v>3.582814248640659</v>
       </c>
       <c r="G19">
-        <v>2.878259120272972</v>
+        <v>2.878259120272958</v>
       </c>
       <c r="H19">
-        <v>0.144315942508527</v>
+        <v>0.1443159425085305</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>3.708330285864363</v>
+        <v>3.708330285864335</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5380911661310677</v>
+        <v>0.5380911661310108</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03940965400897767</v>
+        <v>0.03940965400897056</v>
       </c>
       <c r="E20">
-        <v>0.009286301500489813</v>
+        <v>0.009286301500464944</v>
       </c>
       <c r="F20">
-        <v>3.760332298004755</v>
+        <v>3.760332298004727</v>
       </c>
       <c r="G20">
         <v>3.022391585792178</v>
       </c>
       <c r="H20">
-        <v>0.1401490793508735</v>
+        <v>0.1401490793508415</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.535839103121674</v>
+        <v>5.535839103121646</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>3.87505718661744</v>
+        <v>3.875057186617454</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6072241839316632</v>
+        <v>0.6072241839318622</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04905681222843583</v>
+        <v>0.04905681222782476</v>
       </c>
       <c r="E21">
-        <v>0.008909807959917693</v>
+        <v>0.008909807959947891</v>
       </c>
       <c r="F21">
-        <v>4.390696566337539</v>
+        <v>4.39069656633751</v>
       </c>
       <c r="G21">
-        <v>3.535429718223384</v>
+        <v>3.535429718223369</v>
       </c>
       <c r="H21">
-        <v>0.1281024635654298</v>
+        <v>0.1281024635654333</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>4.452696098972623</v>
+        <v>4.452696098972595</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.65285676653113</v>
+        <v>0.6528567665309311</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.0563667481253276</v>
+        <v>0.05636674812554077</v>
       </c>
       <c r="E22">
-        <v>0.009054514383969092</v>
+        <v>0.009054514383985079</v>
       </c>
       <c r="F22">
         <v>4.833539711696488</v>
       </c>
       <c r="G22">
-        <v>3.896916060661056</v>
+        <v>3.896916060661027</v>
       </c>
       <c r="H22">
-        <v>0.1218648626161674</v>
+        <v>0.1218648626161709</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.86811174720998</v>
+        <v>6.868111747209952</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1216,25 +1216,25 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.0523594303143966</v>
+        <v>0.05235943031416923</v>
       </c>
       <c r="E23">
-        <v>0.008937351715333719</v>
+        <v>0.008937351715293751</v>
       </c>
       <c r="F23">
         <v>4.593956582025214</v>
       </c>
       <c r="G23">
-        <v>3.701243094273352</v>
+        <v>3.701243094273394</v>
       </c>
       <c r="H23">
-        <v>0.1250315801013002</v>
+        <v>0.1250315801012931</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.579062548517925</v>
+        <v>6.579062548517953</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1254,19 +1254,19 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03926616039785102</v>
+        <v>0.03926616039761655</v>
       </c>
       <c r="E24">
-        <v>0.00929820799925718</v>
+        <v>0.009298207999256292</v>
       </c>
       <c r="F24">
         <v>3.750468714269203</v>
       </c>
       <c r="G24">
-        <v>3.01437889468879</v>
+        <v>3.014378894688775</v>
       </c>
       <c r="H24">
-        <v>0.1403709673746079</v>
+        <v>0.1403709673746008</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4396809115576019</v>
+        <v>0.4396809115578293</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02833119980532217</v>
+        <v>0.02833119980554244</v>
       </c>
       <c r="E25">
-        <v>0.01101978821815308</v>
+        <v>0.01101978821809269</v>
       </c>
       <c r="F25">
-        <v>2.939835013162735</v>
+        <v>2.939835013162764</v>
       </c>
       <c r="G25">
-        <v>2.357605091460456</v>
+        <v>2.357605091460442</v>
       </c>
       <c r="H25">
-        <v>0.1628503433662267</v>
+        <v>0.1628503433662338</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.442677188628295</v>
+        <v>4.44267718862838</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_16/res_line/pl_mw.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.368756299103012</v>
+        <v>0.3687562991028983</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02209939290411</v>
+        <v>0.02209939290422369</v>
       </c>
       <c r="E2">
-        <v>0.01314248260815543</v>
+        <v>0.01314248260818385</v>
       </c>
       <c r="F2">
-        <v>2.400334794046131</v>
+        <v>2.400334794046159</v>
       </c>
       <c r="G2">
         <v>1.922649003766495</v>
       </c>
       <c r="H2">
-        <v>0.1835470253031808</v>
+        <v>0.1835470253032074</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>3.679196572226743</v>
+        <v>3.679196572226772</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2.542454630990463</v>
+        <v>2.542454630990449</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -456,31 +456,31 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01867726551067506</v>
+        <v>0.01867726551077808</v>
       </c>
       <c r="E3">
-        <v>0.01500566756978516</v>
+        <v>0.01500566756981003</v>
       </c>
       <c r="F3">
         <v>2.060108862371848</v>
       </c>
       <c r="G3">
-        <v>1.649405557768233</v>
+        <v>1.649405557768262</v>
       </c>
       <c r="H3">
-        <v>0.1997809889433633</v>
+        <v>0.1997809889433899</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>3.17494641601246</v>
+        <v>3.174946416012446</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.184971551588902</v>
+        <v>2.184971551588916</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2916384562465595</v>
+        <v>0.2916384562465453</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -497,7 +497,7 @@
         <v>0.01688496767924974</v>
       </c>
       <c r="E4">
-        <v>0.01633024586131127</v>
+        <v>0.01633024586131038</v>
       </c>
       <c r="F4">
         <v>1.860995839557731</v>
@@ -506,13 +506,13 @@
         <v>1.489933077499998</v>
       </c>
       <c r="H4">
-        <v>0.2107330126831837</v>
+        <v>0.2107330126832139</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2.870032696348133</v>
+        <v>2.870032696348105</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2797100117814182</v>
+        <v>0.2797100117812903</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01622132456802561</v>
+        <v>0.01622132456812864</v>
       </c>
       <c r="E5">
-        <v>0.01691170127954544</v>
+        <v>0.01691170127954766</v>
       </c>
       <c r="F5">
-        <v>1.781965390701686</v>
+        <v>1.781965390701671</v>
       </c>
       <c r="G5">
         <v>1.426736673806346</v>
       </c>
       <c r="H5">
-        <v>0.2154296833286971</v>
+        <v>0.2154296833287059</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>2.74673031682137</v>
+        <v>2.746730316821356</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.883009092288489</v>
+        <v>1.883009092288447</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -570,10 +570,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01611486566316955</v>
+        <v>0.01611486566325837</v>
       </c>
       <c r="E6">
-        <v>0.01701066841842858</v>
+        <v>0.01701066841843968</v>
       </c>
       <c r="F6">
         <v>1.768960420704431</v>
@@ -582,19 +582,19 @@
         <v>1.416343078218688</v>
       </c>
       <c r="H6">
-        <v>0.2162232936977713</v>
+        <v>0.2162232936977464</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>2.726307430741414</v>
+        <v>2.7263074307414</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.868646366465669</v>
+        <v>1.868646366465711</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,31 +602,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2914775533923972</v>
+        <v>0.2914775533923688</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01687576073951291</v>
+        <v>0.01687576073962305</v>
       </c>
       <c r="E7">
-        <v>0.01633792341026608</v>
+        <v>0.01633792341025142</v>
       </c>
       <c r="F7">
-        <v>1.85992189756935</v>
+        <v>1.859921897569393</v>
       </c>
       <c r="G7">
-        <v>1.489073907088482</v>
+        <v>1.489073907088468</v>
       </c>
       <c r="H7">
-        <v>0.2107954249651733</v>
+        <v>0.2107954249651716</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2.868366222391103</v>
+        <v>2.86836622239106</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,25 +640,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3522490841859138</v>
+        <v>0.3522490841857859</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02084824575086941</v>
+        <v>0.02084824575076638</v>
       </c>
       <c r="E8">
-        <v>0.01374503484180822</v>
+        <v>0.01374503484181044</v>
       </c>
       <c r="F8">
-        <v>2.280767452854846</v>
+        <v>2.280767452854832</v>
       </c>
       <c r="G8">
-        <v>1.826520619352721</v>
+        <v>1.826520619352735</v>
       </c>
       <c r="H8">
-        <v>0.1889313866163196</v>
+        <v>0.1889313866163498</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4723128600565758</v>
+        <v>0.4723128600567463</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03167996373521476</v>
+        <v>0.03167996373520765</v>
       </c>
       <c r="E9">
-        <v>0.01029033271462865</v>
+        <v>0.01029033271462954</v>
       </c>
       <c r="F9">
-        <v>3.202387816153788</v>
+        <v>3.202387816153816</v>
       </c>
       <c r="G9">
-        <v>2.569931098075571</v>
+        <v>2.569931098075557</v>
       </c>
       <c r="H9">
-        <v>0.1545775933554197</v>
+        <v>0.1545775933554161</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>3.344364920125017</v>
+        <v>3.344364920125031</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.561662460256855</v>
+        <v>0.561662460256656</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04251558199824501</v>
+        <v>0.04251558199828054</v>
       </c>
       <c r="E10">
-        <v>0.009078888948805819</v>
+        <v>0.009078888948835129</v>
       </c>
       <c r="F10">
         <v>3.970008437930488</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.804072847889415</v>
+        <v>5.804072847889444</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4.069611423324062</v>
+        <v>4.069611423324076</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.602720188266062</v>
+        <v>0.6027201882659767</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04837747400260639</v>
+        <v>0.04837747400274139</v>
       </c>
       <c r="E11">
-        <v>0.008912740479322778</v>
+        <v>0.008912740479363634</v>
       </c>
       <c r="F11">
-        <v>4.348178208482409</v>
+        <v>4.348178208482437</v>
       </c>
       <c r="G11">
-        <v>3.50076753818179</v>
+        <v>3.500767538181776</v>
       </c>
       <c r="H11">
         <v>0.1287917654528705</v>
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6183433875991966</v>
+        <v>0.6183433875991682</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.05076567067121118</v>
+        <v>0.05076567067131066</v>
       </c>
       <c r="E12">
-        <v>0.008915686353151209</v>
+        <v>0.008915686353232921</v>
       </c>
       <c r="F12">
-        <v>4.496562928538651</v>
+        <v>4.496562928538708</v>
       </c>
       <c r="G12">
-        <v>3.621769757270286</v>
+        <v>3.621769757270343</v>
       </c>
       <c r="H12">
-        <v>0.1264574450378717</v>
+        <v>0.1264574450378646</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.460256709288331</v>
+        <v>6.460256709288387</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>4.547656607408442</v>
+        <v>4.54765660740847</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6149750008489718</v>
+        <v>0.6149750008492276</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.05024319256262544</v>
+        <v>0.05024319256298782</v>
       </c>
       <c r="E13">
-        <v>0.008911927875838721</v>
+        <v>0.008911927875819181</v>
       </c>
       <c r="F13">
         <v>4.464356355901373</v>
       </c>
       <c r="G13">
-        <v>3.595498247152719</v>
+        <v>3.595498247152705</v>
       </c>
       <c r="H13">
-        <v>0.1269472612278868</v>
+        <v>0.126947261227869</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>4.518827030045614</v>
+        <v>4.518827030045628</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6040039004884079</v>
+        <v>0.6040039004886637</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04857034743160682</v>
+        <v>0.04857034743129418</v>
       </c>
       <c r="E14">
-        <v>0.008911593624407743</v>
+        <v>0.00891159362440952</v>
       </c>
       <c r="F14">
-        <v>4.360275384051704</v>
+        <v>4.360275384051761</v>
       </c>
       <c r="G14">
-        <v>3.510628681510795</v>
+        <v>3.510628681510767</v>
       </c>
       <c r="H14">
-        <v>0.1285939533473481</v>
+        <v>0.1285939533473233</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.292699831648548</v>
+        <v>6.29269983164852</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -912,16 +912,16 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04756878926629327</v>
+        <v>0.04756878926674091</v>
       </c>
       <c r="E15">
-        <v>0.00892032077144389</v>
+        <v>0.008920320771459878</v>
       </c>
       <c r="F15">
         <v>4.297231728789114</v>
       </c>
       <c r="G15">
-        <v>3.459245154182</v>
+        <v>3.459245154182028</v>
       </c>
       <c r="H15">
         <v>0.1296397773031543</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.214665365151376</v>
+        <v>6.214665365151433</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>4.368388905829931</v>
+        <v>4.368388905829917</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5589888580225022</v>
+        <v>0.5589888580225875</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04215399570396983</v>
+        <v>0.04215399570375666</v>
       </c>
       <c r="E16">
-        <v>0.00909833674932603</v>
+        <v>0.009098336749342906</v>
       </c>
       <c r="F16">
         <v>3.945958378660549</v>
@@ -962,19 +962,19 @@
         <v>3.173273810329476</v>
       </c>
       <c r="H16">
-        <v>0.1361753678049062</v>
+        <v>0.1361753678049027</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.77351564921409</v>
+        <v>5.773515649214119</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>4.047422505236767</v>
+        <v>4.047422505236781</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5356060308813255</v>
+        <v>0.5356060308812118</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03909283722965995</v>
+        <v>0.03909283722966705</v>
       </c>
       <c r="E17">
-        <v>0.0093128806389986</v>
+        <v>0.009312880639054555</v>
       </c>
       <c r="F17">
-        <v>3.738532791577853</v>
+        <v>3.738532791577882</v>
       </c>
       <c r="G17">
-        <v>3.004683381669025</v>
+        <v>3.004683381669011</v>
       </c>
       <c r="H17">
-        <v>0.1406409606862837</v>
+        <v>0.1406409606862944</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>3.854684195622326</v>
+        <v>3.854684195622312</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5221945119053544</v>
+        <v>0.5221945119057523</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03741743868596359</v>
+        <v>0.03741743868609149</v>
       </c>
       <c r="E18">
         <v>0.009471761296122594</v>
       </c>
       <c r="F18">
-        <v>3.621881526643193</v>
+        <v>3.621881526643222</v>
       </c>
       <c r="G18">
-        <v>2.909965414298725</v>
+        <v>2.909965414298696</v>
       </c>
       <c r="H18">
         <v>0.1433668676904247</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.35639747357186</v>
+        <v>5.356397473571803</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>3.745185878611323</v>
+        <v>3.745185878611352</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5176596222994192</v>
+        <v>0.5176596222993055</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03686392096632574</v>
+        <v>0.03686392096619073</v>
       </c>
       <c r="E19">
-        <v>0.009531367430374083</v>
+        <v>0.009531367430398952</v>
       </c>
       <c r="F19">
-        <v>3.582814248640659</v>
+        <v>3.582814248640688</v>
       </c>
       <c r="G19">
-        <v>2.878259120272958</v>
+        <v>2.878259120272972</v>
       </c>
       <c r="H19">
-        <v>0.1443159425085305</v>
+        <v>0.144315942508527</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>3.708330285864335</v>
+        <v>3.708330285864363</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5380911661310108</v>
+        <v>0.5380911661310677</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03940965400897056</v>
+        <v>0.03940965400897767</v>
       </c>
       <c r="E20">
-        <v>0.009286301500464944</v>
+        <v>0.009286301500489813</v>
       </c>
       <c r="F20">
-        <v>3.760332298004727</v>
+        <v>3.760332298004755</v>
       </c>
       <c r="G20">
         <v>3.022391585792178</v>
       </c>
       <c r="H20">
-        <v>0.1401490793508415</v>
+        <v>0.1401490793508735</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.535839103121646</v>
+        <v>5.535839103121674</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>3.875057186617454</v>
+        <v>3.87505718661744</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6072241839318622</v>
+        <v>0.6072241839316632</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04905681222782476</v>
+        <v>0.04905681222843583</v>
       </c>
       <c r="E21">
-        <v>0.008909807959947891</v>
+        <v>0.008909807959917693</v>
       </c>
       <c r="F21">
-        <v>4.39069656633751</v>
+        <v>4.390696566337539</v>
       </c>
       <c r="G21">
-        <v>3.535429718223369</v>
+        <v>3.535429718223384</v>
       </c>
       <c r="H21">
-        <v>0.1281024635654333</v>
+        <v>0.1281024635654298</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>4.452696098972595</v>
+        <v>4.452696098972623</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6528567665309311</v>
+        <v>0.65285676653113</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.05636674812554077</v>
+        <v>0.0563667481253276</v>
       </c>
       <c r="E22">
-        <v>0.009054514383985079</v>
+        <v>0.009054514383969092</v>
       </c>
       <c r="F22">
         <v>4.833539711696488</v>
       </c>
       <c r="G22">
-        <v>3.896916060661027</v>
+        <v>3.896916060661056</v>
       </c>
       <c r="H22">
-        <v>0.1218648626161709</v>
+        <v>0.1218648626161674</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.868111747209952</v>
+        <v>6.86811174720998</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1216,25 +1216,25 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.05235943031416923</v>
+        <v>0.0523594303143966</v>
       </c>
       <c r="E23">
-        <v>0.008937351715293751</v>
+        <v>0.008937351715333719</v>
       </c>
       <c r="F23">
         <v>4.593956582025214</v>
       </c>
       <c r="G23">
-        <v>3.701243094273394</v>
+        <v>3.701243094273352</v>
       </c>
       <c r="H23">
-        <v>0.1250315801012931</v>
+        <v>0.1250315801013002</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.579062548517953</v>
+        <v>6.579062548517925</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1254,19 +1254,19 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03926616039761655</v>
+        <v>0.03926616039785102</v>
       </c>
       <c r="E24">
-        <v>0.009298207999256292</v>
+        <v>0.00929820799925718</v>
       </c>
       <c r="F24">
         <v>3.750468714269203</v>
       </c>
       <c r="G24">
-        <v>3.014378894688775</v>
+        <v>3.01437889468879</v>
       </c>
       <c r="H24">
-        <v>0.1403709673746008</v>
+        <v>0.1403709673746079</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4396809115578293</v>
+        <v>0.4396809115576019</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02833119980554244</v>
+        <v>0.02833119980532217</v>
       </c>
       <c r="E25">
-        <v>0.01101978821809269</v>
+        <v>0.01101978821815308</v>
       </c>
       <c r="F25">
-        <v>2.939835013162764</v>
+        <v>2.939835013162735</v>
       </c>
       <c r="G25">
-        <v>2.357605091460442</v>
+        <v>2.357605091460456</v>
       </c>
       <c r="H25">
-        <v>0.1628503433662338</v>
+        <v>0.1628503433662267</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.44267718862838</v>
+        <v>4.442677188628295</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_16/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3687562991028983</v>
+        <v>0.369073660891587</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02209939290422369</v>
+        <v>0.0219480999300643</v>
       </c>
       <c r="E2">
-        <v>0.01314248260818385</v>
+        <v>0.01313684613411681</v>
       </c>
       <c r="F2">
-        <v>2.400334794046159</v>
+        <v>2.396213136682434</v>
       </c>
       <c r="G2">
-        <v>1.922649003766495</v>
+        <v>0.6452239000557114</v>
       </c>
       <c r="H2">
-        <v>0.1835470253032074</v>
+        <v>1.276641923915236</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1838314230881473</v>
       </c>
       <c r="J2">
-        <v>3.679196572226772</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3.676905686044989</v>
       </c>
       <c r="L2">
-        <v>2.542454630990449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>2.541353778159973</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3209344842257167</v>
+        <v>0.3212120344635991</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01867726551077808</v>
+        <v>0.0185502818254264</v>
       </c>
       <c r="E3">
-        <v>0.01500566756981003</v>
+        <v>0.01499957947478237</v>
       </c>
       <c r="F3">
-        <v>2.060108862371848</v>
+        <v>2.056620508253516</v>
       </c>
       <c r="G3">
-        <v>1.649405557768262</v>
+        <v>0.5500342509476326</v>
       </c>
       <c r="H3">
-        <v>0.1997809889433899</v>
+        <v>1.099420217743599</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.2000197926067777</v>
       </c>
       <c r="J3">
-        <v>3.174946416012446</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>3.173042948762628</v>
       </c>
       <c r="L3">
-        <v>2.184971551588916</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>2.184070249876314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2916384562465453</v>
+        <v>0.2918915096530554</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01688496767924974</v>
+        <v>0.01677164339758619</v>
       </c>
       <c r="E4">
-        <v>0.01633024586131038</v>
+        <v>0.01632451514139044</v>
       </c>
       <c r="F4">
-        <v>1.860995839557731</v>
+        <v>1.857872025817386</v>
       </c>
       <c r="G4">
-        <v>1.489933077499998</v>
+        <v>0.49431449419464</v>
       </c>
       <c r="H4">
-        <v>0.2107330126832139</v>
+        <v>0.996150889461461</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.2109435768983232</v>
       </c>
       <c r="J4">
-        <v>2.870032696348105</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>2.868352496284842</v>
       </c>
       <c r="L4">
-        <v>1.969799643744267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1.969010890716078</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2797100117812903</v>
+        <v>0.2799530671363044</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01622132456812864</v>
+        <v>0.0161132986827468</v>
       </c>
       <c r="E5">
-        <v>0.01691170127954766</v>
+        <v>0.01690626153107777</v>
       </c>
       <c r="F5">
-        <v>1.781965390701671</v>
+        <v>1.778985082590779</v>
       </c>
       <c r="G5">
-        <v>1.426736673806346</v>
+        <v>0.4721935442188965</v>
       </c>
       <c r="H5">
-        <v>0.2154296833287059</v>
+        <v>0.9552666953535578</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2156286813144987</v>
       </c>
       <c r="J5">
-        <v>2.746730316821356</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>2.745138117059113</v>
       </c>
       <c r="L5">
-        <v>1.883009092288447</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1.882264161821922</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2777297162765677</v>
+        <v>0.2779711104644065</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01611486566325837</v>
+        <v>0.01600770471772961</v>
       </c>
       <c r="E6">
-        <v>0.01701066841843968</v>
+        <v>0.01700528537228196</v>
       </c>
       <c r="F6">
-        <v>1.768960420704431</v>
+        <v>1.766003664567123</v>
       </c>
       <c r="G6">
-        <v>1.416343078218688</v>
+        <v>0.4685530282583272</v>
       </c>
       <c r="H6">
-        <v>0.2162232936977464</v>
+        <v>0.948545059589776</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2164203676545</v>
       </c>
       <c r="J6">
-        <v>2.7263074307414</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>2.72472968125409</v>
       </c>
       <c r="L6">
-        <v>1.868646366465711</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1.867908601501483</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2914775533923688</v>
+        <v>0.2917304720271972</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01687576073962305</v>
+        <v>0.01676250893781273</v>
       </c>
       <c r="E7">
-        <v>0.01633792341025142</v>
+        <v>0.01633219604386182</v>
       </c>
       <c r="F7">
-        <v>1.859921897569393</v>
+        <v>1.856800038353711</v>
       </c>
       <c r="G7">
-        <v>1.489073907088468</v>
+        <v>0.4940139170724223</v>
       </c>
       <c r="H7">
-        <v>0.2107954249651716</v>
+        <v>0.9955948973202879</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.2110058334276381</v>
       </c>
       <c r="J7">
-        <v>2.86836622239106</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>2.866687220378253</v>
       </c>
       <c r="L7">
-        <v>1.968625775439449</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1.967837621127345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3522490841857859</v>
+        <v>0.3525527285499095</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02084824575076638</v>
+        <v>0.02070563068408404</v>
       </c>
       <c r="E8">
-        <v>0.01374503484181044</v>
+        <v>0.01373910190386507</v>
       </c>
       <c r="F8">
-        <v>2.280767452854832</v>
+        <v>2.276869905637795</v>
       </c>
       <c r="G8">
-        <v>1.826520619352735</v>
+        <v>0.6117718397377132</v>
       </c>
       <c r="H8">
-        <v>0.1889313866163498</v>
+        <v>1.21425899439798</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.1892001166103192</v>
       </c>
       <c r="J8">
-        <v>3.504208512641981</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>3.502054695449544</v>
       </c>
       <c r="L8">
-        <v>2.418172272829281</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>2.417142604386342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4723128600567463</v>
+        <v>0.4727156459094886</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03167996373520765</v>
+        <v>0.03146688405477249</v>
       </c>
       <c r="E9">
-        <v>0.01029033271462954</v>
+        <v>0.01028975485047035</v>
       </c>
       <c r="F9">
-        <v>3.202387816153816</v>
+        <v>3.196716008850558</v>
       </c>
       <c r="G9">
-        <v>2.569931098075557</v>
+        <v>0.8696784653768503</v>
       </c>
       <c r="H9">
-        <v>0.1545775933554161</v>
+        <v>1.697468756104954</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.1549585089035901</v>
       </c>
       <c r="J9">
-        <v>4.800598108050394</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>4.797358233050971</v>
       </c>
       <c r="L9">
-        <v>3.344364920125031</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>3.342755816568584</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.561662460256656</v>
+        <v>0.5621379422536279</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04251558199828054</v>
+        <v>0.04223771538931942</v>
       </c>
       <c r="E10">
-        <v>0.009078888948835129</v>
+        <v>0.009086902906583205</v>
       </c>
       <c r="F10">
-        <v>3.970008437930488</v>
+        <v>3.962767885893555</v>
       </c>
       <c r="G10">
-        <v>3.192834552307019</v>
+        <v>1.084707500599933</v>
       </c>
       <c r="H10">
-        <v>0.1356878622992355</v>
+        <v>2.10336403806177</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.1361492582586585</v>
       </c>
       <c r="J10">
-        <v>5.804072847889444</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>5.799868830833702</v>
       </c>
       <c r="L10">
-        <v>4.069611423324076</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>4.067462378777108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6027201882659767</v>
+        <v>0.6032286897483061</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04837747400274139</v>
+        <v>0.04806564109361489</v>
       </c>
       <c r="E11">
-        <v>0.008912740479363634</v>
+        <v>0.008925976283082449</v>
       </c>
       <c r="F11">
-        <v>4.348178208482437</v>
+        <v>4.34013020818432</v>
       </c>
       <c r="G11">
-        <v>3.500767538181776</v>
+        <v>1.190743458686029</v>
       </c>
       <c r="H11">
-        <v>0.1287917654528705</v>
+        <v>2.304258544908066</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.1292890841376106</v>
       </c>
       <c r="J11">
-        <v>6.277752220158675</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>6.273050092344079</v>
       </c>
       <c r="L11">
-        <v>4.414398976412258</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>4.411962995749988</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6183433875991682</v>
+        <v>0.6188643791755624</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.05076567067131066</v>
+        <v>0.05044013085610288</v>
       </c>
       <c r="E12">
-        <v>0.008915686353232921</v>
+        <v>0.008931117800574206</v>
       </c>
       <c r="F12">
-        <v>4.496562928538708</v>
+        <v>4.488191331811635</v>
       </c>
       <c r="G12">
-        <v>3.621769757270343</v>
+        <v>1.232369403497046</v>
       </c>
       <c r="H12">
-        <v>0.1264574450378646</v>
+        <v>2.383235964183228</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.126968229113551</v>
       </c>
       <c r="J12">
-        <v>6.460256709288387</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>6.455354593442166</v>
       </c>
       <c r="L12">
-        <v>4.54765660740847</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>4.545104023789946</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6149750008492276</v>
+        <v>0.6154933032283338</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.05024319256298782</v>
+        <v>0.04992064622118164</v>
       </c>
       <c r="E13">
-        <v>0.008911927875819181</v>
+        <v>0.008926876237885573</v>
       </c>
       <c r="F13">
-        <v>4.464356355901373</v>
+        <v>4.456055329933235</v>
       </c>
       <c r="G13">
-        <v>3.595498247152705</v>
+        <v>1.223333606054155</v>
       </c>
       <c r="H13">
-        <v>0.126947261227869</v>
+        <v>2.3660870951216</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.1274551522399321</v>
       </c>
       <c r="J13">
-        <v>6.420799502832381</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>6.415941018535477</v>
       </c>
       <c r="L13">
-        <v>4.518827030045628</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>4.516299952058162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6040039004886637</v>
+        <v>0.6045134298678647</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04857034743129418</v>
+        <v>0.04825740514750265</v>
       </c>
       <c r="E14">
-        <v>0.00891159362440952</v>
+        <v>0.008925005509505368</v>
       </c>
       <c r="F14">
-        <v>4.360275384051761</v>
+        <v>4.352201148868602</v>
       </c>
       <c r="G14">
-        <v>3.510628681510767</v>
+        <v>1.194136615539549</v>
       </c>
       <c r="H14">
-        <v>0.1285939533473233</v>
+        <v>2.310694133779435</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.1290923828879471</v>
       </c>
       <c r="J14">
-        <v>6.29269983164852</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>6.287981497950312</v>
       </c>
       <c r="L14">
-        <v>4.425304493900455</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>4.422859093526895</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5972941552801956</v>
+        <v>0.5977983088845065</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04756878926674091</v>
+        <v>0.04726161274865603</v>
       </c>
       <c r="E15">
-        <v>0.008920320771459878</v>
+        <v>0.008932820877546988</v>
       </c>
       <c r="F15">
-        <v>4.297231728789114</v>
+        <v>4.289293933208768</v>
       </c>
       <c r="G15">
-        <v>3.459245154182028</v>
+        <v>1.176454225668365</v>
       </c>
       <c r="H15">
-        <v>0.1296397773031543</v>
+        <v>2.277161605385245</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.1301323920129533</v>
       </c>
       <c r="J15">
-        <v>6.214665365151433</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>6.210031298380983</v>
       </c>
       <c r="L15">
-        <v>4.368388905829917</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>4.365992429021247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5589888580225875</v>
+        <v>0.5594621806659461</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04215399570375666</v>
+        <v>0.04187824289535769</v>
       </c>
       <c r="E16">
-        <v>0.009098336749342906</v>
+        <v>0.009106038303035469</v>
       </c>
       <c r="F16">
-        <v>3.945958378660549</v>
+        <v>3.938768367813623</v>
       </c>
       <c r="G16">
-        <v>3.173273810329476</v>
+        <v>1.077966447663769</v>
       </c>
       <c r="H16">
-        <v>0.1361753678049027</v>
+        <v>2.090607454167937</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.1366343993582753</v>
       </c>
       <c r="J16">
-        <v>5.773515649214119</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>5.769342767760406</v>
       </c>
       <c r="L16">
-        <v>4.047422505236781</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>4.045291224935696</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5356060308812118</v>
+        <v>0.5360604237070277</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03909283722966705</v>
+        <v>0.0388350883844879</v>
       </c>
       <c r="E17">
-        <v>0.009312880639054555</v>
+        <v>0.009317994568808885</v>
       </c>
       <c r="F17">
-        <v>3.738532791577882</v>
+        <v>3.731774822881334</v>
       </c>
       <c r="G17">
-        <v>3.004683381669011</v>
+        <v>1.019838045099647</v>
       </c>
       <c r="H17">
-        <v>0.1406409606862944</v>
+        <v>1.980686615349896</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.1410791913812659</v>
       </c>
       <c r="J17">
-        <v>5.507710572337203</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>5.503803643250365</v>
       </c>
       <c r="L17">
-        <v>3.854684195622312</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>3.852703796129575</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5221945119057523</v>
+        <v>0.522638012663748</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03741743868609149</v>
+        <v>0.03716963708127707</v>
       </c>
       <c r="E18">
-        <v>0.009471761296122594</v>
+        <v>0.009475508536946897</v>
       </c>
       <c r="F18">
-        <v>3.621881526643222</v>
+        <v>3.615363553376454</v>
       </c>
       <c r="G18">
-        <v>2.909965414298696</v>
+        <v>0.9871567562243371</v>
       </c>
       <c r="H18">
-        <v>0.1433668676904247</v>
+        <v>1.918951931756794</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.1437930726324197</v>
       </c>
       <c r="J18">
-        <v>5.356397473571803</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>5.352638122275948</v>
       </c>
       <c r="L18">
-        <v>3.745185878611352</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>3.743288524898048</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5176596222993055</v>
+        <v>0.5180994346004013</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03686392096619073</v>
+        <v>0.0366194222872025</v>
       </c>
       <c r="E19">
-        <v>0.009531367430398952</v>
+        <v>0.009534671991373145</v>
       </c>
       <c r="F19">
-        <v>3.582814248640688</v>
+        <v>3.576376183599052</v>
       </c>
       <c r="G19">
-        <v>2.878259120272972</v>
+        <v>0.9762129380200548</v>
       </c>
       <c r="H19">
-        <v>0.144315942508527</v>
+        <v>1.898290228168605</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.1447380660596664</v>
       </c>
       <c r="J19">
-        <v>5.305417627606602</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>5.301707389089955</v>
       </c>
       <c r="L19">
-        <v>3.708330285864363</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>3.706460458888785</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5380911661310677</v>
+        <v>0.5385475745272572</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03940965400897767</v>
+        <v>0.03915003209301915</v>
       </c>
       <c r="E20">
-        <v>0.009286301500489813</v>
+        <v>0.009291678096531975</v>
       </c>
       <c r="F20">
-        <v>3.760332298004755</v>
+        <v>3.753529244826666</v>
       </c>
       <c r="G20">
-        <v>3.022391585792178</v>
+        <v>1.025946132792782</v>
       </c>
       <c r="H20">
-        <v>0.1401490793508735</v>
+        <v>1.992230110471951</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.1405895309391241</v>
       </c>
       <c r="J20">
-        <v>5.535839103121674</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>5.531904438369736</v>
       </c>
       <c r="L20">
-        <v>3.87505718661744</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>3.873061124774765</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6072241839316632</v>
+        <v>0.6077362906025598</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04905681222843583</v>
+        <v>0.04874107383359672</v>
       </c>
       <c r="E21">
-        <v>0.008909807959917693</v>
+        <v>0.008923664969779921</v>
       </c>
       <c r="F21">
-        <v>4.390696566337539</v>
+        <v>4.382556243203481</v>
       </c>
       <c r="G21">
-        <v>3.535429718223384</v>
+        <v>1.202669838924635</v>
       </c>
       <c r="H21">
-        <v>0.1281024635654298</v>
+        <v>2.326880382864857</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.12860367631081</v>
       </c>
       <c r="J21">
-        <v>6.330234723143377</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>6.325475559374695</v>
       </c>
       <c r="L21">
-        <v>4.452696098972623</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>4.450226943090087</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.65285676653113</v>
+        <v>0.6534051881715186</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.0563667481253276</v>
+        <v>0.0560092654250397</v>
       </c>
       <c r="E22">
-        <v>0.009054514383969092</v>
+        <v>0.009075202234822832</v>
       </c>
       <c r="F22">
-        <v>4.833539711696488</v>
+        <v>4.824418237606892</v>
       </c>
       <c r="G22">
-        <v>3.896916060661056</v>
+        <v>1.326943907442427</v>
       </c>
       <c r="H22">
-        <v>0.1218648626161674</v>
+        <v>2.562889700129148</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.1224049498803303</v>
       </c>
       <c r="J22">
-        <v>6.86811174720998</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>6.862745405946526</v>
       </c>
       <c r="L22">
-        <v>4.8462861111839</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>4.843459934214792</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6284543941155789</v>
+        <v>0.6289834453954768</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.0523594303143966</v>
+        <v>0.05202477552442275</v>
       </c>
       <c r="E23">
-        <v>0.008937351715333719</v>
+        <v>0.008954265250610938</v>
       </c>
       <c r="F23">
-        <v>4.593956582025214</v>
+        <v>4.585370429160349</v>
       </c>
       <c r="G23">
-        <v>3.701243094273352</v>
+        <v>1.259697262683346</v>
       </c>
       <c r="H23">
-        <v>0.1250315801013002</v>
+        <v>2.4351178858401</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.1255510140160929</v>
       </c>
       <c r="J23">
-        <v>6.579062548517925</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>6.574027719621398</v>
       </c>
       <c r="L23">
-        <v>4.634527413450598</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>4.631897026106572</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5369675393077102</v>
+        <v>0.5374230364923847</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03926616039785102</v>
+        <v>0.03900738653968716</v>
       </c>
       <c r="E24">
-        <v>0.00929820799925718</v>
+        <v>0.009303465469249872</v>
       </c>
       <c r="F24">
-        <v>3.750468714269203</v>
+        <v>3.743686069616217</v>
       </c>
       <c r="G24">
-        <v>3.01437889468879</v>
+        <v>1.023182390119786</v>
       </c>
       <c r="H24">
-        <v>0.1403709673746079</v>
+        <v>1.987006788686372</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.1408104151032283</v>
       </c>
       <c r="J24">
-        <v>5.523117564198827</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>5.519195455119359</v>
       </c>
       <c r="L24">
-        <v>3.865842518638189</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>3.86385354912008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4396809115576019</v>
+        <v>0.4400569022887026</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02833119980532217</v>
+        <v>0.02813901706543476</v>
       </c>
       <c r="E25">
-        <v>0.01101978821815308</v>
+        <v>0.01101703578357505</v>
       </c>
       <c r="F25">
-        <v>2.939835013162735</v>
+        <v>2.934680013787158</v>
       </c>
       <c r="G25">
-        <v>2.357605091460456</v>
+        <v>0.796184790455726</v>
       </c>
       <c r="H25">
-        <v>0.1628503433662267</v>
+        <v>1.559298148078028</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.1632011885657398</v>
       </c>
       <c r="J25">
-        <v>4.442677188628295</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>4.439754004530045</v>
       </c>
       <c r="L25">
-        <v>3.087413703421689</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>3.085977009440498</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_16/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.369073660891587</v>
+        <v>0.2671069380919846</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0219480999300643</v>
+        <v>0.03299079650547299</v>
       </c>
       <c r="E2">
-        <v>0.01313684613411681</v>
+        <v>0.02535420861965321</v>
       </c>
       <c r="F2">
-        <v>2.396213136682434</v>
+        <v>2.193760009981361</v>
       </c>
       <c r="G2">
-        <v>0.6452239000557114</v>
+        <v>0.0007754980775557252</v>
       </c>
       <c r="H2">
-        <v>1.276641923915236</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1838314230881473</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.03097398647859384</v>
       </c>
       <c r="K2">
-        <v>3.676905686044989</v>
+        <v>3.876563692308196</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.541353778159973</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>2.544046977991556</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.67180410246911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3212120344635991</v>
+        <v>0.2331977955235658</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0185502818254264</v>
+        <v>0.02878154090496921</v>
       </c>
       <c r="E3">
-        <v>0.01499957947478237</v>
+        <v>0.0259080297480252</v>
       </c>
       <c r="F3">
-        <v>2.056620508253516</v>
+        <v>1.989877920809732</v>
       </c>
       <c r="G3">
-        <v>0.5500342509476326</v>
+        <v>0.0007877903946470923</v>
       </c>
       <c r="H3">
-        <v>1.099420217743599</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2000197926067777</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.03459324947935327</v>
       </c>
       <c r="K3">
-        <v>3.173042948762628</v>
+        <v>3.346251173237704</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.184070249876314</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>2.200326590360021</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.50475147598722</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2918915096530554</v>
+        <v>0.2126123908201407</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01677164339758619</v>
+        <v>0.02632361038907405</v>
       </c>
       <c r="E4">
-        <v>0.01632451514139044</v>
+        <v>0.02627063372134986</v>
       </c>
       <c r="F4">
-        <v>1.857872025817386</v>
+        <v>1.874695226738353</v>
       </c>
       <c r="G4">
-        <v>0.49431449419464</v>
+        <v>0.0007954775415340427</v>
       </c>
       <c r="H4">
-        <v>0.996150889461461</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2109435768983232</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0369557928499411</v>
       </c>
       <c r="K4">
-        <v>2.868352496284842</v>
+        <v>3.025384484088477</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1.969010890716078</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>1.99256431802354</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.41019445871494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2799530671363044</v>
+        <v>0.2042756577687612</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0161132986827468</v>
+        <v>0.02534781048394663</v>
       </c>
       <c r="E5">
-        <v>0.01690626153107777</v>
+        <v>0.02642396085638499</v>
       </c>
       <c r="F5">
-        <v>1.778985082590779</v>
+        <v>1.829990023308383</v>
       </c>
       <c r="G5">
-        <v>0.4721935442188965</v>
+        <v>0.0007986493649479082</v>
       </c>
       <c r="H5">
-        <v>0.9552666953535578</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2156286813144987</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.03795229983321491</v>
       </c>
       <c r="K5">
-        <v>2.745138117059113</v>
+        <v>2.895603242206363</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.882264161821922</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1.908580472199219</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.373444438985274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2779711104644065</v>
+        <v>0.202894293669587</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01600770471772961</v>
+        <v>0.02518717904305134</v>
       </c>
       <c r="E6">
-        <v>0.01700528537228196</v>
+        <v>0.02644975388034743</v>
       </c>
       <c r="F6">
-        <v>1.766003664567123</v>
+        <v>1.822693971818907</v>
       </c>
       <c r="G6">
-        <v>0.4685530282583272</v>
+        <v>0.0007991785265689413</v>
       </c>
       <c r="H6">
-        <v>0.948545059589776</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2164203676545</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.03811976586619448</v>
       </c>
       <c r="K6">
-        <v>2.72472968125409</v>
+        <v>2.874106109473246</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.867908601501483</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1.894672240951706</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.367443516153017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2917304720271972</v>
+        <v>0.2124997571615523</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01676250893781273</v>
+        <v>0.02631035319231145</v>
       </c>
       <c r="E7">
-        <v>0.01633219604386182</v>
+        <v>0.02627267914992526</v>
       </c>
       <c r="F7">
-        <v>1.856800038353711</v>
+        <v>1.874083625924442</v>
       </c>
       <c r="G7">
-        <v>0.4940139170724223</v>
+        <v>0.0007955201537994972</v>
       </c>
       <c r="H7">
-        <v>0.9955948973202879</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2110058334276381</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.03696909733701714</v>
       </c>
       <c r="K7">
-        <v>2.866687220378253</v>
+        <v>3.02363053376871</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.967837621127345</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1.99142910406799</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.409691904281729</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3525527285499095</v>
+        <v>0.2553618259953225</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02070563068408404</v>
+        <v>0.03150929858028562</v>
       </c>
       <c r="E8">
-        <v>0.01373910190386507</v>
+        <v>0.02554041302561849</v>
       </c>
       <c r="F8">
-        <v>2.276869905637795</v>
+        <v>2.121204705429108</v>
       </c>
       <c r="G8">
-        <v>0.6117718397377132</v>
+        <v>0.0007797101406307799</v>
       </c>
       <c r="H8">
-        <v>1.21425899439798</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1892001166103192</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.03219181699984119</v>
       </c>
       <c r="K8">
-        <v>3.502054695449544</v>
+        <v>3.692585916578707</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.417142604386342</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>2.424757881192122</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.612392068547479</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4727156459094886</v>
+        <v>0.3416380043378808</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03146688405477249</v>
+        <v>0.04303074346778502</v>
       </c>
       <c r="E9">
-        <v>0.01028975485047035</v>
+        <v>0.02428955880987038</v>
       </c>
       <c r="F9">
-        <v>3.196716008850558</v>
+        <v>2.699998644904923</v>
       </c>
       <c r="G9">
-        <v>0.8696784653768503</v>
+        <v>0.0007495977574292948</v>
       </c>
       <c r="H9">
-        <v>1.697468756104954</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1549585089035901</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.02401534208230327</v>
       </c>
       <c r="K9">
-        <v>4.797358233050971</v>
+        <v>5.053644081418867</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.342755816568584</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>3.308195925126242</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.085695503770538</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5621379422536279</v>
+        <v>0.4069523341082402</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04223771538931942</v>
+        <v>0.0528568187256333</v>
       </c>
       <c r="E10">
-        <v>0.009086902906583205</v>
+        <v>0.02349466169787773</v>
       </c>
       <c r="F10">
-        <v>3.962767885893555</v>
+        <v>3.207457970120601</v>
       </c>
       <c r="G10">
-        <v>1.084707500599933</v>
+        <v>0.0007276567746908421</v>
       </c>
       <c r="H10">
-        <v>2.10336403806177</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1361492582586585</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.01886272084099261</v>
       </c>
       <c r="K10">
-        <v>5.799868830833702</v>
+        <v>6.102991571886463</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.067462378777108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>3.990542598427425</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.500106953738182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6032286897483061</v>
+        <v>0.4372343164230301</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04806564109361489</v>
+        <v>0.05778608031704024</v>
       </c>
       <c r="E11">
-        <v>0.008925976283082449</v>
+        <v>0.02316361429546943</v>
       </c>
       <c r="F11">
-        <v>4.34013020818432</v>
+        <v>3.463256776435117</v>
       </c>
       <c r="G11">
-        <v>1.190743458686029</v>
+        <v>0.0007176127210280304</v>
       </c>
       <c r="H11">
-        <v>2.304258544908066</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1292890841376106</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.01673985823766833</v>
       </c>
       <c r="K11">
-        <v>6.273050092344079</v>
+        <v>6.596590650514173</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>4.411962995749988</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>4.311805845302402</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.708970201216957</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6188643791755624</v>
+        <v>0.4487980357244226</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.05044013085610288</v>
+        <v>0.05973664999866202</v>
       </c>
       <c r="E12">
-        <v>0.008931117800574206</v>
+        <v>0.02304307560951413</v>
       </c>
       <c r="F12">
-        <v>4.488191331811635</v>
+        <v>3.564464648462177</v>
       </c>
       <c r="G12">
-        <v>1.232369403497046</v>
+        <v>0.0007137894509834452</v>
       </c>
       <c r="H12">
-        <v>2.383235964183228</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.126968229113551</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.01597149839508916</v>
       </c>
       <c r="K12">
-        <v>6.455354593442166</v>
+        <v>6.786420229870316</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>4.545104023789946</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>4.435402847241122</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2.791612052439334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6154933032283338</v>
+        <v>0.4463030281403917</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04992064622118164</v>
+        <v>0.05931249148770945</v>
       </c>
       <c r="E13">
-        <v>0.008926876237885573</v>
+        <v>0.02306881306738218</v>
       </c>
       <c r="F13">
-        <v>4.456055329933235</v>
+        <v>3.54246073780314</v>
       </c>
       <c r="G13">
-        <v>1.223333606054155</v>
+        <v>0.000714613938381415</v>
       </c>
       <c r="H13">
-        <v>2.3660870951216</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1274551522399321</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.01613533104096154</v>
       </c>
       <c r="K13">
-        <v>6.415941018535477</v>
+        <v>6.745396838914417</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>4.516299952058162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>4.408690723126938</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2.773644293876927</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6045134298678647</v>
+        <v>0.4381836427514259</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04825740514750265</v>
+        <v>0.05794475339075689</v>
       </c>
       <c r="E14">
-        <v>0.008925005509505368</v>
+        <v>0.02315359794486538</v>
       </c>
       <c r="F14">
-        <v>4.352201148868602</v>
+        <v>3.471491252447407</v>
       </c>
       <c r="G14">
-        <v>1.194136615539549</v>
+        <v>0.0007172986451588571</v>
       </c>
       <c r="H14">
-        <v>2.310694133779435</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1290923828879471</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.01667590884275238</v>
       </c>
       <c r="K14">
-        <v>6.287981497950312</v>
+        <v>6.612145872593601</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>4.422859093526895</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>4.321932861212346</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.715693969652591</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5977983088845065</v>
+        <v>0.4332233367105971</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04726161274865603</v>
+        <v>0.05711851674385215</v>
       </c>
       <c r="E15">
-        <v>0.008932820877546988</v>
+        <v>0.02320617400433145</v>
       </c>
       <c r="F15">
-        <v>4.289293933208768</v>
+        <v>3.428611166522586</v>
       </c>
       <c r="G15">
-        <v>1.176454225668365</v>
+        <v>0.0007189401674098733</v>
       </c>
       <c r="H15">
-        <v>2.277161605385245</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1301323920129533</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.01701177781965413</v>
       </c>
       <c r="K15">
-        <v>6.210031298380983</v>
+        <v>6.530924641825521</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>4.365992429021247</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>4.269056691900062</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.680680943316361</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5594621806659461</v>
+        <v>0.4049860052573706</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04187824289535769</v>
+        <v>0.05254535686670536</v>
       </c>
       <c r="E16">
-        <v>0.009106038303035469</v>
+        <v>0.02351694501473922</v>
       </c>
       <c r="F16">
-        <v>3.938768367813623</v>
+        <v>3.191303813133771</v>
       </c>
       <c r="G16">
-        <v>1.077966447663769</v>
+        <v>0.0007283110425380537</v>
       </c>
       <c r="H16">
-        <v>2.090607454167937</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1366343993582753</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.01900620623434612</v>
       </c>
       <c r="K16">
-        <v>5.769342767760406</v>
+        <v>6.071107290997134</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.045291224935696</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>3.969796501452677</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.486916937879784</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5360604237070277</v>
+        <v>0.3878190449113532</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.0388350883844879</v>
+        <v>0.04986895987685358</v>
       </c>
       <c r="E17">
-        <v>0.009317994568808885</v>
+        <v>0.02371568548591929</v>
       </c>
       <c r="F17">
-        <v>3.731774822881334</v>
+        <v>3.05260155025195</v>
       </c>
       <c r="G17">
-        <v>1.019838045099647</v>
+        <v>0.0007340366831032686</v>
       </c>
       <c r="H17">
-        <v>1.980686615349896</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1410791913812659</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.02028878311661542</v>
       </c>
       <c r="K17">
-        <v>5.503803643250365</v>
+        <v>5.793559572015454</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>3.852703796129575</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>3.789237770900584</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.37366283080739</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.522638012663748</v>
+        <v>0.3779977356458915</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03716963708127707</v>
+        <v>0.04837151069500933</v>
       </c>
       <c r="E18">
-        <v>0.009475508536946897</v>
+        <v>0.02383283992021523</v>
       </c>
       <c r="F18">
-        <v>3.615363553376454</v>
+        <v>2.975118838267804</v>
       </c>
       <c r="G18">
-        <v>0.9871567562243371</v>
+        <v>0.0007373247516632856</v>
       </c>
       <c r="H18">
-        <v>1.918951931756794</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1437930726324197</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.02104703652646789</v>
       </c>
       <c r="K18">
-        <v>5.352638122275948</v>
+        <v>5.635409684520539</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>3.743288524898048</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>3.686380538422611</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.31039272622759</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5180994346004013</v>
+        <v>0.3746810468316397</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.0366194222872025</v>
+        <v>0.04787122608506778</v>
       </c>
       <c r="E19">
-        <v>0.009534671991373145</v>
+        <v>0.02387298382625547</v>
       </c>
       <c r="F19">
-        <v>3.576376183599052</v>
+        <v>2.949258322773858</v>
       </c>
       <c r="G19">
-        <v>0.9762129380200548</v>
+        <v>0.0007384374387799603</v>
       </c>
       <c r="H19">
-        <v>1.898290228168605</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1447380660596664</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.02130719528394609</v>
       </c>
       <c r="K19">
-        <v>5.301707389089955</v>
+        <v>5.582102761523004</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>3.706460458888785</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>3.651715487968247</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.289274974026171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5385475745272572</v>
+        <v>0.3896409471955309</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03915003209301915</v>
+        <v>0.05014940975934579</v>
       </c>
       <c r="E20">
-        <v>0.009291678096531975</v>
+        <v>0.02369423216059419</v>
       </c>
       <c r="F20">
-        <v>3.753529244826666</v>
+        <v>3.06712415632083</v>
       </c>
       <c r="G20">
-        <v>1.025946132792782</v>
+        <v>0.0007334277844174794</v>
       </c>
       <c r="H20">
-        <v>1.992230110471951</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1405895309391241</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.0201500991428869</v>
       </c>
       <c r="K20">
-        <v>5.531904438369736</v>
+        <v>5.822947172226122</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>3.873061124774765</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>3.808353038709797</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.385521226013765</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6077362906025598</v>
+        <v>0.4405657535865402</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04874107383359672</v>
+        <v>0.05834404725699471</v>
       </c>
       <c r="E21">
-        <v>0.008923664969779921</v>
+        <v>0.0231285596387214</v>
       </c>
       <c r="F21">
-        <v>4.382556243203481</v>
+        <v>3.492212000156599</v>
       </c>
       <c r="G21">
-        <v>1.202669838924635</v>
+        <v>0.0007165107167232677</v>
       </c>
       <c r="H21">
-        <v>2.326880382864857</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.12860367631081</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.01651613050510026</v>
       </c>
       <c r="K21">
-        <v>6.325475559374695</v>
+        <v>6.651200578699331</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>4.450226943090087</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>4.347359614489463</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2.732613361476865</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6534051881715186</v>
+        <v>0.4744196416364446</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.0560092654250397</v>
+        <v>0.06420098604999325</v>
       </c>
       <c r="E22">
-        <v>0.009075202234822832</v>
+        <v>0.02278726929330555</v>
       </c>
       <c r="F22">
-        <v>4.824418237606892</v>
+        <v>3.795825677608548</v>
       </c>
       <c r="G22">
-        <v>1.326943907442427</v>
+        <v>0.0007053321513017433</v>
       </c>
       <c r="H22">
-        <v>2.562889700129148</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1224049498803303</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.0143504881888088</v>
       </c>
       <c r="K22">
-        <v>6.862745405946526</v>
+        <v>7.209866175785521</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>4.843459934214792</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>4.711189513017416</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2.980550169780031</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6289834453954768</v>
+        <v>0.4562934178148623</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.05202477552442275</v>
+        <v>0.06102199262824826</v>
       </c>
       <c r="E23">
-        <v>0.008954265250610938</v>
+        <v>0.02296664436453488</v>
       </c>
       <c r="F23">
-        <v>4.585370429160349</v>
+        <v>3.631124867597237</v>
       </c>
       <c r="G23">
-        <v>1.259697262683346</v>
+        <v>0.0007113137590973728</v>
       </c>
       <c r="H23">
-        <v>2.4351178858401</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1255510140160929</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.01548573561974553</v>
       </c>
       <c r="K23">
-        <v>6.574027719621398</v>
+        <v>6.909881895126347</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>4.631897026106572</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>4.515800715714008</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2.846046232057503</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5374230364923847</v>
+        <v>0.3888171160974991</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03900738653968716</v>
+        <v>0.05002249118239988</v>
       </c>
       <c r="E24">
-        <v>0.009303465469249872</v>
+        <v>0.02370392221933493</v>
       </c>
       <c r="F24">
-        <v>3.743686069616217</v>
+        <v>3.060551504252061</v>
       </c>
       <c r="G24">
-        <v>1.023182390119786</v>
+        <v>0.0007337030782213502</v>
       </c>
       <c r="H24">
-        <v>1.987006788686372</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1408104151032283</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.02021273339340368</v>
       </c>
       <c r="K24">
-        <v>5.519195455119359</v>
+        <v>5.809656669607307</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>3.86385354912008</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>3.799708099680117</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.380154355841469</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4400569022887026</v>
+        <v>0.3180051716980614</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02813901706543476</v>
+        <v>0.0397214351391959</v>
       </c>
       <c r="E25">
-        <v>0.01101703578357505</v>
+        <v>0.0246071406163435</v>
       </c>
       <c r="F25">
-        <v>2.934680013787158</v>
+        <v>2.531038558007424</v>
       </c>
       <c r="G25">
-        <v>0.796184790455726</v>
+        <v>0.0007576821035809589</v>
       </c>
       <c r="H25">
-        <v>1.559298148078028</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1632011885657398</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.02608771350704719</v>
       </c>
       <c r="K25">
-        <v>4.439754004530045</v>
+        <v>4.678373105805036</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.085977009440498</v>
+        <v>3.064412239081477</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1.947644428770971</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_16/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2671069380919846</v>
+        <v>2.32935600567663</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03299079650547299</v>
+        <v>0.1311139959119387</v>
       </c>
       <c r="E2">
-        <v>0.02535420861965321</v>
+        <v>0.2743319759346292</v>
       </c>
       <c r="F2">
-        <v>2.193760009981361</v>
+        <v>0.5563189809454556</v>
       </c>
       <c r="G2">
-        <v>0.0007754980775557252</v>
+        <v>0.0007874164795085634</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.3600759637664765</v>
       </c>
       <c r="J2">
-        <v>0.03097398647859384</v>
+        <v>0.5013856848556202</v>
       </c>
       <c r="K2">
-        <v>3.876563692308196</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.166417165924059</v>
       </c>
       <c r="M2">
-        <v>2.544046977991556</v>
+        <v>0.8156515337945578</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.67180410246911</v>
+        <v>1.824181811018747</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2331977955235658</v>
+        <v>2.031720550364071</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02878154090496921</v>
+        <v>0.1270246700257687</v>
       </c>
       <c r="E3">
-        <v>0.0259080297480252</v>
+        <v>0.2548693151428409</v>
       </c>
       <c r="F3">
-        <v>1.989877920809732</v>
+        <v>0.5413732965627105</v>
       </c>
       <c r="G3">
-        <v>0.0007877903946470923</v>
+        <v>0.0007922904734969422</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.3831030505649444</v>
       </c>
       <c r="J3">
-        <v>0.03459324947935327</v>
+        <v>0.4587750512077235</v>
       </c>
       <c r="K3">
-        <v>3.346251173237704</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1.015758689316641</v>
       </c>
       <c r="M3">
-        <v>2.200326590360021</v>
+        <v>0.7108478960134121</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.50475147598722</v>
+        <v>1.707357486281154</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2126123908201407</v>
+        <v>1.849215320799118</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02632361038907405</v>
+        <v>0.1245590533673848</v>
       </c>
       <c r="E4">
-        <v>0.02627063372134986</v>
+        <v>0.2429735356553024</v>
       </c>
       <c r="F4">
-        <v>1.874695226738353</v>
+        <v>0.5340479238579547</v>
       </c>
       <c r="G4">
-        <v>0.0007954775415340427</v>
+        <v>0.0007953813589118659</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.3985680678249217</v>
       </c>
       <c r="J4">
-        <v>0.0369557928499411</v>
+        <v>0.4326906348441071</v>
       </c>
       <c r="K4">
-        <v>3.025384484088477</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.9233392936441476</v>
       </c>
       <c r="M4">
-        <v>1.99256431802354</v>
+        <v>0.6465677898301223</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.41019445871494</v>
+        <v>1.640942490622962</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2042756577687612</v>
+        <v>1.774879383562961</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02534781048394663</v>
+        <v>0.1235654397983907</v>
       </c>
       <c r="E5">
-        <v>0.02642396085638499</v>
+        <v>0.2381386474270428</v>
       </c>
       <c r="F5">
-        <v>1.829990023308383</v>
+        <v>0.5315029841097427</v>
       </c>
       <c r="G5">
-        <v>0.0007986493649479082</v>
+        <v>0.0007966661533524926</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.4051913438011461</v>
       </c>
       <c r="J5">
-        <v>0.03795229983321491</v>
+        <v>0.4220785598283072</v>
       </c>
       <c r="K5">
-        <v>2.895603242206363</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.8856870790328344</v>
       </c>
       <c r="M5">
-        <v>1.908580472199219</v>
+        <v>0.6203822076238694</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.373444438985274</v>
+        <v>1.61512837456479</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.202894293669587</v>
+        <v>1.762537462356363</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02518717904305134</v>
+        <v>0.1234011179600998</v>
       </c>
       <c r="E6">
-        <v>0.02644975388034743</v>
+        <v>0.2373365618100536</v>
       </c>
       <c r="F6">
-        <v>1.822693971818907</v>
+        <v>0.5311062710878787</v>
       </c>
       <c r="G6">
-        <v>0.0007991785265689413</v>
+        <v>0.0007968810315861949</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.4063101818168597</v>
       </c>
       <c r="J6">
-        <v>0.03811976586619448</v>
+        <v>0.4203174303369366</v>
       </c>
       <c r="K6">
-        <v>2.874106109473246</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.8794351921436601</v>
       </c>
       <c r="M6">
-        <v>1.894672240951706</v>
+        <v>0.6160344248354335</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.367443516153017</v>
+        <v>1.610915060766786</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2124997571615523</v>
+        <v>1.848212684569916</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02631035319231145</v>
+        <v>0.1245456083051408</v>
       </c>
       <c r="E7">
-        <v>0.02627267914992526</v>
+        <v>0.2429082802500133</v>
       </c>
       <c r="F7">
-        <v>1.874083625924442</v>
+        <v>0.5340118520170734</v>
       </c>
       <c r="G7">
-        <v>0.0007955201537994972</v>
+        <v>0.0007953985833089039</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.3986561071410435</v>
       </c>
       <c r="J7">
-        <v>0.03696909733701714</v>
+        <v>0.4325474485044936</v>
       </c>
       <c r="K7">
-        <v>3.02363053376871</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.9228314797866233</v>
       </c>
       <c r="M7">
-        <v>1.99142910406799</v>
+        <v>0.6462146158663771</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.409691904281729</v>
+        <v>1.640589399441609</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2553618259953225</v>
+        <v>2.226664955737078</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03150929858028562</v>
+        <v>0.1296944546649996</v>
       </c>
       <c r="E8">
-        <v>0.02554041302561849</v>
+        <v>0.2676093676222848</v>
       </c>
       <c r="F8">
-        <v>2.121204705429108</v>
+        <v>0.5507657950466083</v>
       </c>
       <c r="G8">
-        <v>0.0007797101406307799</v>
+        <v>0.000789076973468736</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.3677327988303638</v>
       </c>
       <c r="J8">
-        <v>0.03219181699984119</v>
+        <v>0.4866757741145165</v>
       </c>
       <c r="K8">
-        <v>3.692585916578707</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1.1144447868584</v>
       </c>
       <c r="M8">
-        <v>2.424757881192122</v>
+        <v>0.779495449755423</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.612392068547479</v>
+        <v>1.782744168714629</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3416380043378808</v>
+        <v>2.972000041805416</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04303074346778502</v>
+        <v>0.1401631240771763</v>
       </c>
       <c r="E9">
-        <v>0.02428955880987038</v>
+        <v>0.316529194808993</v>
       </c>
       <c r="F9">
-        <v>2.699998644904923</v>
+        <v>0.5995242102418601</v>
       </c>
       <c r="G9">
-        <v>0.0007495977574292948</v>
+        <v>0.0007774341393524794</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.3182045511948601</v>
       </c>
       <c r="J9">
-        <v>0.02401534208230327</v>
+        <v>0.5935635706525346</v>
       </c>
       <c r="K9">
-        <v>5.053644081418867</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1.491485617009602</v>
       </c>
       <c r="M9">
-        <v>3.308195925126242</v>
+        <v>1.041838096691293</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.085695503770538</v>
+        <v>2.107833565813422</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4069523341082402</v>
+        <v>3.523482540887812</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0528568187256333</v>
+        <v>0.1481026284118556</v>
       </c>
       <c r="E10">
-        <v>0.02349466169787773</v>
+        <v>0.3528443523574225</v>
       </c>
       <c r="F10">
-        <v>3.207457970120601</v>
+        <v>0.6468488269813619</v>
       </c>
       <c r="G10">
-        <v>0.0007276567746908421</v>
+        <v>0.000769301508193598</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.2894597843533795</v>
       </c>
       <c r="J10">
-        <v>0.01886272084099261</v>
+        <v>0.6727357128334148</v>
       </c>
       <c r="K10">
-        <v>6.102991571886463</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1.770229892163627</v>
       </c>
       <c r="M10">
-        <v>3.990542598427425</v>
+        <v>1.235838572249506</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.500106953738182</v>
+        <v>2.381112667528498</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4372343164230301</v>
+        <v>3.775684711023246</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.05778608031704024</v>
+        <v>0.1517741288815913</v>
       </c>
       <c r="E11">
-        <v>0.02316361429546943</v>
+        <v>0.3694665831012074</v>
       </c>
       <c r="F11">
-        <v>3.463256776435117</v>
+        <v>0.6713108638450791</v>
       </c>
       <c r="G11">
-        <v>0.0007176127210280304</v>
+        <v>0.000765684123574437</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.2782510827555456</v>
       </c>
       <c r="J11">
-        <v>0.01673985823766833</v>
+        <v>0.7089399636039957</v>
       </c>
       <c r="K11">
-        <v>6.596590650514173</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1.897647664044626</v>
       </c>
       <c r="M11">
-        <v>4.311805845302402</v>
+        <v>1.324529560523445</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.708970201216957</v>
+        <v>2.514410984863247</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4487980357244226</v>
+        <v>3.871420552980794</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.05973664999866202</v>
+        <v>0.1531735638406104</v>
       </c>
       <c r="E12">
-        <v>0.02304307560951413</v>
+        <v>0.3757775113205497</v>
       </c>
       <c r="F12">
-        <v>3.564464648462177</v>
+        <v>0.6810354372117473</v>
       </c>
       <c r="G12">
-        <v>0.0007137894509834452</v>
+        <v>0.0007643253197078983</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.2742940990861982</v>
       </c>
       <c r="J12">
-        <v>0.01597149839508916</v>
+        <v>0.7226808860915099</v>
       </c>
       <c r="K12">
-        <v>6.786420229870316</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1.946006846973631</v>
       </c>
       <c r="M12">
-        <v>4.435402847241122</v>
+        <v>1.358192106887856</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.791612052439334</v>
+        <v>2.566315641084202</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4463030281403917</v>
+        <v>3.850791100257027</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.05931249148770945</v>
+        <v>0.1528717559050676</v>
       </c>
       <c r="E13">
-        <v>0.02306881306738218</v>
+        <v>0.3744175787066411</v>
       </c>
       <c r="F13">
-        <v>3.54246073780314</v>
+        <v>0.6789198955967777</v>
       </c>
       <c r="G13">
-        <v>0.000714613938381415</v>
+        <v>0.000764617485608733</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.2751332016939045</v>
       </c>
       <c r="J13">
-        <v>0.01613533104096154</v>
+        <v>0.7197200778612398</v>
       </c>
       <c r="K13">
-        <v>6.745396838914417</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1.935586647661296</v>
       </c>
       <c r="M13">
-        <v>4.408690723126938</v>
+        <v>1.350938605245943</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.773644293876927</v>
+        <v>2.555071270786016</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4381836427514259</v>
+        <v>3.783556051669109</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.05794475339075689</v>
+        <v>0.1518890752673556</v>
       </c>
       <c r="E14">
-        <v>0.02315359794486538</v>
+        <v>0.3699854466549652</v>
       </c>
       <c r="F14">
-        <v>3.471491252447407</v>
+        <v>0.6721014270792267</v>
       </c>
       <c r="G14">
-        <v>0.0007172986451588571</v>
+        <v>0.0007655721178792778</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.2779196634031535</v>
       </c>
       <c r="J14">
-        <v>0.01667590884275238</v>
+        <v>0.7100697884246614</v>
       </c>
       <c r="K14">
-        <v>6.612145872593601</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1.901623898867967</v>
       </c>
       <c r="M14">
-        <v>4.321932861212346</v>
+        <v>1.327297366585654</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.715693969652591</v>
+        <v>2.518651784329336</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4332233367105971</v>
+        <v>3.742404182111272</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.05711851674385215</v>
+        <v>0.1512883590582419</v>
       </c>
       <c r="E15">
-        <v>0.02320617400433145</v>
+        <v>0.3672728348745764</v>
       </c>
       <c r="F15">
-        <v>3.428611166522586</v>
+        <v>0.6679862230530489</v>
       </c>
       <c r="G15">
-        <v>0.0007189401674098733</v>
+        <v>0.0007661582682162721</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.2796644814381679</v>
       </c>
       <c r="J15">
-        <v>0.01701177781965413</v>
+        <v>0.7041628925465773</v>
       </c>
       <c r="K15">
-        <v>6.530924641825521</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1.880835543030088</v>
       </c>
       <c r="M15">
-        <v>4.269056691900062</v>
+        <v>1.312826915829902</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.680680943316361</v>
+        <v>2.496533924057587</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4049860052573706</v>
+        <v>3.507030733386159</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.05254535686670536</v>
+        <v>0.1478639330757616</v>
       </c>
       <c r="E16">
-        <v>0.02351694501473922</v>
+        <v>0.3517602535369875</v>
       </c>
       <c r="F16">
-        <v>3.191303813133771</v>
+        <v>0.6453125114410909</v>
       </c>
       <c r="G16">
-        <v>0.0007283110425380537</v>
+        <v>0.0007695394998433695</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.290231466505233</v>
       </c>
       <c r="J16">
-        <v>0.01900620623434612</v>
+        <v>0.6703738100177503</v>
       </c>
       <c r="K16">
-        <v>6.071107290997134</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1.761916923578752</v>
       </c>
       <c r="M16">
-        <v>3.969796501452677</v>
+        <v>1.230052417688171</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.486916937879784</v>
+        <v>2.372593410031783</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3878190449113532</v>
+        <v>3.363005551464312</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04986895987685358</v>
+        <v>0.1457788184105127</v>
       </c>
       <c r="E17">
-        <v>0.02371568548591929</v>
+        <v>0.3422711682688018</v>
       </c>
       <c r="F17">
-        <v>3.05260155025195</v>
+        <v>0.632181427270389</v>
       </c>
       <c r="G17">
-        <v>0.0007340366831032686</v>
+        <v>0.0007716342783254303</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.2972053213979358</v>
       </c>
       <c r="J17">
-        <v>0.02028878311661542</v>
+        <v>0.649696333518051</v>
       </c>
       <c r="K17">
-        <v>5.793559572015454</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1.689135756581464</v>
       </c>
       <c r="M17">
-        <v>3.789237770900584</v>
+        <v>1.179395041681062</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.37366283080739</v>
+        <v>2.298953629177021</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3779977356458915</v>
+        <v>3.280288600749714</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.04837151069500933</v>
+        <v>0.1445851071386457</v>
       </c>
       <c r="E18">
-        <v>0.02383283992021523</v>
+        <v>0.336822810115855</v>
       </c>
       <c r="F18">
-        <v>2.975118838267804</v>
+        <v>0.6249023780295744</v>
       </c>
       <c r="G18">
-        <v>0.0007373247516632856</v>
+        <v>0.0007728469269470684</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.3013910528000707</v>
       </c>
       <c r="J18">
-        <v>0.02104703652646789</v>
+        <v>0.637820667287599</v>
       </c>
       <c r="K18">
-        <v>5.635409684520539</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1.647330575684634</v>
       </c>
       <c r="M18">
-        <v>3.686380538422611</v>
+        <v>1.150298687301486</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.31039272622759</v>
+        <v>2.257434653963543</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3746810468316397</v>
+        <v>3.252301910249059</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.04787122608506778</v>
+        <v>0.1441818826347827</v>
       </c>
       <c r="E19">
-        <v>0.02387298382625547</v>
+        <v>0.3349796732902988</v>
       </c>
       <c r="F19">
-        <v>2.949258322773858</v>
+        <v>0.6224836579591155</v>
       </c>
       <c r="G19">
-        <v>0.0007384374387799603</v>
+        <v>0.0007732588696774075</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.3028376943131583</v>
       </c>
       <c r="J19">
-        <v>0.02130719528394609</v>
+        <v>0.6338026541492923</v>
       </c>
       <c r="K19">
-        <v>5.582102761523004</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1.633185195122167</v>
       </c>
       <c r="M19">
-        <v>3.651715487968247</v>
+        <v>1.140453697244311</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.289274974026171</v>
+        <v>2.243516786371998</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3896409471955309</v>
+        <v>3.378324310461437</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.05014940975934579</v>
+        <v>0.1460002001756351</v>
       </c>
       <c r="E20">
-        <v>0.02369423216059419</v>
+        <v>0.3432803010136283</v>
       </c>
       <c r="F20">
-        <v>3.06712415632083</v>
+        <v>0.6335506610786155</v>
       </c>
       <c r="G20">
-        <v>0.0007334277844174794</v>
+        <v>0.0007714104852390546</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.2964447439987268</v>
       </c>
       <c r="J20">
-        <v>0.0201500991428869</v>
+        <v>0.6518956498146764</v>
       </c>
       <c r="K20">
-        <v>5.822947172226122</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1.69687743461796</v>
       </c>
       <c r="M20">
-        <v>3.808353038709797</v>
+        <v>1.184783323825329</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.385521226013765</v>
+        <v>2.306705168465811</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4405657535865402</v>
+        <v>3.803297964164187</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.05834404725699471</v>
+        <v>0.1521774604327177</v>
       </c>
       <c r="E21">
-        <v>0.0231285596387214</v>
+        <v>0.3712868100395355</v>
       </c>
       <c r="F21">
-        <v>3.492212000156599</v>
+        <v>0.6740913256798251</v>
       </c>
       <c r="G21">
-        <v>0.0007165107167232677</v>
+        <v>0.0007652914267774759</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.2770932507690418</v>
       </c>
       <c r="J21">
-        <v>0.01651613050510026</v>
+        <v>0.7129034323835413</v>
       </c>
       <c r="K21">
-        <v>6.651200578699331</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1.911596456487814</v>
       </c>
       <c r="M21">
-        <v>4.347359614489463</v>
+        <v>1.334239158422221</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.732613361476865</v>
+        <v>2.52930918925793</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4744196416364446</v>
+        <v>4.082418803371752</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.06420098604999325</v>
+        <v>0.1562680961583993</v>
       </c>
       <c r="E22">
-        <v>0.02278726929330555</v>
+        <v>0.3896875080081514</v>
       </c>
       <c r="F22">
-        <v>3.795825677608548</v>
+        <v>0.7032966833912724</v>
       </c>
       <c r="G22">
-        <v>0.0007053321513017433</v>
+        <v>0.0007613560914622257</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.2661316181525422</v>
       </c>
       <c r="J22">
-        <v>0.0143504881888088</v>
+        <v>0.7529593370208971</v>
       </c>
       <c r="K22">
-        <v>7.209866175785521</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>2.052572933273638</v>
       </c>
       <c r="M22">
-        <v>4.711189513017416</v>
+        <v>1.432374550767591</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.980550169780031</v>
+        <v>2.683185754643631</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4562934178148623</v>
+        <v>3.933306342863091</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.06102199262824826</v>
+        <v>0.1540797656265838</v>
       </c>
       <c r="E23">
-        <v>0.02296664436453488</v>
+        <v>0.3798572262024322</v>
       </c>
       <c r="F23">
-        <v>3.631124867597237</v>
+        <v>0.6874474011707434</v>
       </c>
       <c r="G23">
-        <v>0.0007113137590973728</v>
+        <v>0.000763450894432978</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.2718211548768359</v>
       </c>
       <c r="J23">
-        <v>0.01548573561974553</v>
+        <v>0.7315624826764662</v>
       </c>
       <c r="K23">
-        <v>6.909881895126347</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1.977264895325447</v>
       </c>
       <c r="M23">
-        <v>4.515800715714008</v>
+        <v>1.379951031100461</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.846046232057503</v>
+        <v>2.600243125090429</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3888171160974991</v>
+        <v>3.371398437687333</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.05002249118239988</v>
+        <v>0.1459000977918521</v>
       </c>
       <c r="E24">
-        <v>0.02370392221933493</v>
+        <v>0.3428240502905311</v>
       </c>
       <c r="F24">
-        <v>3.060551504252061</v>
+        <v>0.6329307918487856</v>
       </c>
       <c r="G24">
-        <v>0.0007337030782213502</v>
+        <v>0.0007715116360548915</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.2967880531074414</v>
       </c>
       <c r="J24">
-        <v>0.02021273339340368</v>
+        <v>0.6509013015597418</v>
       </c>
       <c r="K24">
-        <v>5.809656669607307</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1.693377306121079</v>
       </c>
       <c r="M24">
-        <v>3.799708099680117</v>
+        <v>1.182347197649221</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.380154355841469</v>
+        <v>2.303198161305403</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3180051716980614</v>
+        <v>2.769834738888278</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0397214351391959</v>
+        <v>0.1372892204547469</v>
       </c>
       <c r="E25">
-        <v>0.0246071406163435</v>
+        <v>0.3032357615869614</v>
       </c>
       <c r="F25">
-        <v>2.531038558007424</v>
+        <v>0.5844525065683257</v>
       </c>
       <c r="G25">
-        <v>0.0007576821035809589</v>
+        <v>0.0007805069232575401</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.3303275172628695</v>
       </c>
       <c r="J25">
-        <v>0.02608771350704719</v>
+        <v>0.5645496813340003</v>
       </c>
       <c r="K25">
-        <v>4.678373105805036</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1.389255266554727</v>
       </c>
       <c r="M25">
-        <v>3.064412239081477</v>
+        <v>0.9706977200262088</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.947644428770971</v>
+        <v>2.014317153074103</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_16/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.32935600567663</v>
+        <v>1.256650447503432</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1311139959119387</v>
+        <v>0.2171995174122117</v>
       </c>
       <c r="E2">
-        <v>0.2743319759346292</v>
+        <v>0.2504361705155205</v>
       </c>
       <c r="F2">
-        <v>0.5563189809454556</v>
+        <v>1.297979492647961</v>
       </c>
       <c r="G2">
-        <v>0.0007874164795085634</v>
+        <v>0.002445197301900778</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3600759637664765</v>
+        <v>0.9601397729862136</v>
       </c>
       <c r="J2">
-        <v>0.5013856848556202</v>
+        <v>0.3512477623970511</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.166417165924059</v>
+        <v>0.5328880917857077</v>
       </c>
       <c r="M2">
-        <v>0.8156515337945578</v>
+        <v>0.4077681410099032</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.824181811018747</v>
+        <v>3.175269015285494</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.031720550364071</v>
+        <v>1.162248352745678</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1270246700257687</v>
+        <v>0.2164623856048351</v>
       </c>
       <c r="E3">
-        <v>0.2548693151428409</v>
+        <v>0.2445548809568407</v>
       </c>
       <c r="F3">
-        <v>0.5413732965627105</v>
+        <v>1.310031483620634</v>
       </c>
       <c r="G3">
-        <v>0.0007922904734969422</v>
+        <v>0.002448498685657444</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3831030505649444</v>
+        <v>0.9765614704292247</v>
       </c>
       <c r="J3">
-        <v>0.4587750512077235</v>
+        <v>0.337761140247693</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.015758689316641</v>
+        <v>0.4853575348940069</v>
       </c>
       <c r="M3">
-        <v>0.7108478960134121</v>
+        <v>0.3745916773015168</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.707357486281154</v>
+        <v>3.184452731511499</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.849215320799118</v>
+        <v>1.104219100402702</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1245590533673848</v>
+        <v>0.2160452416684251</v>
       </c>
       <c r="E4">
-        <v>0.2429735356553024</v>
+        <v>0.240975147994952</v>
       </c>
       <c r="F4">
-        <v>0.5340479238579547</v>
+        <v>1.318381942020856</v>
       </c>
       <c r="G4">
-        <v>0.0007953813589118659</v>
+        <v>0.002450635166373738</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3985680678249217</v>
+        <v>0.9873384794979252</v>
       </c>
       <c r="J4">
-        <v>0.4326906348441071</v>
+        <v>0.3295105323216632</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.9233392936441476</v>
+        <v>0.4561198320986364</v>
       </c>
       <c r="M4">
-        <v>0.6465677898301223</v>
+        <v>0.3541913984188128</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.640942490622962</v>
+        <v>3.192565907845903</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.774879383562961</v>
+        <v>1.08055676267702</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1235654397983907</v>
+        <v>0.2158842414296842</v>
       </c>
       <c r="E5">
-        <v>0.2381386474270428</v>
+        <v>0.239524473450814</v>
       </c>
       <c r="F5">
-        <v>0.5315029841097427</v>
+        <v>1.32202350526952</v>
       </c>
       <c r="G5">
-        <v>0.0007966661533524926</v>
+        <v>0.00245153339765063</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4051913438011461</v>
+        <v>0.991904650770941</v>
       </c>
       <c r="J5">
-        <v>0.4220785598283072</v>
+        <v>0.3261563297484145</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.8856870790328344</v>
+        <v>0.4441925401876858</v>
       </c>
       <c r="M5">
-        <v>0.6203822076238694</v>
+        <v>0.3458712077777477</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.61512837456479</v>
+        <v>3.19649315448126</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.762537462356363</v>
+        <v>1.076626795647996</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1234011179600998</v>
+        <v>0.2158580525516882</v>
       </c>
       <c r="E6">
-        <v>0.2373365618100536</v>
+        <v>0.2392840848989444</v>
       </c>
       <c r="F6">
-        <v>0.5311062710878787</v>
+        <v>1.322642590468803</v>
       </c>
       <c r="G6">
-        <v>0.0007968810315861949</v>
+        <v>0.002451684217478883</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4063101818168597</v>
+        <v>0.9926733947253155</v>
       </c>
       <c r="J6">
-        <v>0.4203174303369366</v>
+        <v>0.3255998607587429</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.8794351921436601</v>
+        <v>0.4422112804160747</v>
       </c>
       <c r="M6">
-        <v>0.6160344248354335</v>
+        <v>0.3444892462595064</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.610915060766786</v>
+        <v>3.197182748234866</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.848212684569916</v>
+        <v>1.103900040163722</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1245456083051408</v>
+        <v>0.2160430338674288</v>
       </c>
       <c r="E7">
-        <v>0.2429082802500133</v>
+        <v>0.2409555506459711</v>
       </c>
       <c r="F7">
-        <v>0.5340118520170734</v>
+        <v>1.318430087429114</v>
       </c>
       <c r="G7">
-        <v>0.0007953985833089039</v>
+        <v>0.002450647168194722</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3986561071410435</v>
+        <v>0.9873993542130997</v>
       </c>
       <c r="J7">
-        <v>0.4325474485044936</v>
+        <v>0.3294652635199071</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.9228314797866233</v>
+        <v>0.4559590267529643</v>
       </c>
       <c r="M7">
-        <v>0.6462146158663771</v>
+        <v>0.3540792166275608</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.640589399441609</v>
+        <v>3.192616358924255</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.226664955737078</v>
+        <v>1.224115252644822</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1296944546649996</v>
+        <v>0.2169380383392721</v>
       </c>
       <c r="E8">
-        <v>0.2676093676222848</v>
+        <v>0.24840190124781</v>
       </c>
       <c r="F8">
-        <v>0.5507657950466083</v>
+        <v>1.30193755015253</v>
       </c>
       <c r="G8">
-        <v>0.000789076973468736</v>
+        <v>0.002446312960007197</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3677327988303638</v>
+        <v>0.9656578916760097</v>
       </c>
       <c r="J8">
-        <v>0.4866757741145165</v>
+        <v>0.3465915256707035</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.1144447868584</v>
+        <v>0.5165111890666196</v>
       </c>
       <c r="M8">
-        <v>0.779495449755423</v>
+        <v>0.3963354169588342</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.782744168714629</v>
+        <v>3.177921324384471</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.972000041805416</v>
+        <v>1.459273310236938</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1401631240771763</v>
+        <v>0.2189714544029684</v>
       </c>
       <c r="E9">
-        <v>0.316529194808993</v>
+        <v>0.2632454320157862</v>
       </c>
       <c r="F9">
-        <v>0.5995242102418601</v>
+        <v>1.277152559698152</v>
       </c>
       <c r="G9">
-        <v>0.0007774341393524794</v>
+        <v>0.002438677935320098</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3182045511948601</v>
+        <v>0.9285324339611414</v>
       </c>
       <c r="J9">
-        <v>0.5935635706525346</v>
+        <v>0.3804008965574752</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.491485617009602</v>
+        <v>0.6347971260456688</v>
       </c>
       <c r="M9">
-        <v>1.041838096691293</v>
+        <v>0.4789420104503535</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.107833565813422</v>
+        <v>3.168792056765938</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.523482540887812</v>
+        <v>1.631625493301499</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1481026284118556</v>
+        <v>0.2206312724491042</v>
       </c>
       <c r="E10">
-        <v>0.3528443523574225</v>
+        <v>0.2742886722565245</v>
       </c>
       <c r="F10">
-        <v>0.6468488269813619</v>
+        <v>1.263571573650943</v>
       </c>
       <c r="G10">
-        <v>0.000769301508193598</v>
+        <v>0.002433590036408743</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2894597843533795</v>
+        <v>0.9046186492261015</v>
       </c>
       <c r="J10">
-        <v>0.6727357128334148</v>
+        <v>0.4053601775859761</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.770229892163627</v>
+        <v>0.7213917171540061</v>
       </c>
       <c r="M10">
-        <v>1.235838572249506</v>
+        <v>0.5394536667439382</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.381112667528498</v>
+        <v>3.174168498705797</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.775684711023246</v>
+        <v>1.70993023340219</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1517741288815913</v>
+        <v>0.2214216013666359</v>
       </c>
       <c r="E11">
-        <v>0.3694665831012074</v>
+        <v>0.2793405415612753</v>
       </c>
       <c r="F11">
-        <v>0.6713108638450791</v>
+        <v>1.258402994928403</v>
       </c>
       <c r="G11">
-        <v>0.000765684123574437</v>
+        <v>0.002431387525838223</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2782510827555456</v>
+        <v>0.8944705854440151</v>
       </c>
       <c r="J11">
-        <v>0.7089399636039957</v>
+        <v>0.4167372645420073</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.897647664044626</v>
+        <v>0.7607124624745154</v>
       </c>
       <c r="M11">
-        <v>1.324529560523445</v>
+        <v>0.5669387801064403</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.514410984863247</v>
+        <v>3.179256128727957</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.871420552980794</v>
+        <v>1.739566596871043</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1531735638406104</v>
+        <v>0.2217258808594877</v>
       </c>
       <c r="E12">
-        <v>0.3757775113205497</v>
+        <v>0.2812574343280048</v>
       </c>
       <c r="F12">
-        <v>0.6810354372117473</v>
+        <v>1.256591325854032</v>
       </c>
       <c r="G12">
-        <v>0.0007643253197078983</v>
+        <v>0.002430569511320345</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2742940990861982</v>
+        <v>0.8907329131093711</v>
       </c>
       <c r="J12">
-        <v>0.7226808860915099</v>
+        <v>0.4210484345163934</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.946006846973631</v>
+        <v>0.7755912287476292</v>
       </c>
       <c r="M12">
-        <v>1.358192106887856</v>
+        <v>0.5773401652206189</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.566315641084202</v>
+        <v>3.181563920981887</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.850791100257027</v>
+        <v>1.733184611401953</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1528717559050676</v>
+        <v>0.2216601276412646</v>
       </c>
       <c r="E13">
-        <v>0.3744175787066411</v>
+        <v>0.2808444287156888</v>
       </c>
       <c r="F13">
-        <v>0.6789198955967777</v>
+        <v>1.256975021088891</v>
       </c>
       <c r="G13">
-        <v>0.000764617485608733</v>
+        <v>0.002430744973740316</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2751332016939045</v>
+        <v>0.8915332075254021</v>
       </c>
       <c r="J13">
-        <v>0.7197200778612398</v>
+        <v>0.4201198235063401</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.935586647661296</v>
+        <v>0.7723873294804946</v>
       </c>
       <c r="M13">
-        <v>1.350938605245943</v>
+        <v>0.5751003452108279</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.555071270786016</v>
+        <v>3.181049920893344</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.783556051669109</v>
+        <v>1.71236876395443</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1518890752673556</v>
+        <v>0.2214465348476296</v>
       </c>
       <c r="E14">
-        <v>0.3699854466549652</v>
+        <v>0.2794981692825189</v>
       </c>
       <c r="F14">
-        <v>0.6721014270792267</v>
+        <v>1.258251028321595</v>
       </c>
       <c r="G14">
-        <v>0.0007655721178792778</v>
+        <v>0.002431319906682981</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2779196634031535</v>
+        <v>0.8941609761091378</v>
       </c>
       <c r="J14">
-        <v>0.7100697884246614</v>
+        <v>0.4170918909141079</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.901623898867967</v>
+        <v>0.7619367757902751</v>
       </c>
       <c r="M14">
-        <v>1.327297366585654</v>
+        <v>0.5677946446206192</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.518651784329336</v>
+        <v>3.179438344472231</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.742404182111272</v>
+        <v>1.699616330499794</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1512883590582419</v>
+        <v>0.22131635197848</v>
       </c>
       <c r="E15">
-        <v>0.3672728348745764</v>
+        <v>0.2786740431680741</v>
       </c>
       <c r="F15">
-        <v>0.6679862230530489</v>
+        <v>1.259051587516723</v>
       </c>
       <c r="G15">
-        <v>0.0007661582682162721</v>
+        <v>0.002431674154668861</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2796644814381679</v>
+        <v>0.8957842619967771</v>
       </c>
       <c r="J15">
-        <v>0.7041628925465773</v>
+        <v>0.4152375627305105</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.880835543030088</v>
+        <v>0.7555340330640092</v>
       </c>
       <c r="M15">
-        <v>1.312826915829902</v>
+        <v>0.5633188108589025</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.496533924057587</v>
+        <v>3.178500892252856</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.507030733386159</v>
+        <v>1.626505954879235</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1478639330757616</v>
+        <v>0.2205803260856598</v>
       </c>
       <c r="E16">
-        <v>0.3517602535369875</v>
+        <v>0.2739590717494593</v>
       </c>
       <c r="F16">
-        <v>0.6453125114410909</v>
+        <v>1.263929699754719</v>
       </c>
       <c r="G16">
-        <v>0.0007695394998433695</v>
+        <v>0.002433736222645613</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.290231466505233</v>
+        <v>0.9052965594687663</v>
       </c>
       <c r="J16">
-        <v>0.6703738100177503</v>
+        <v>0.4046170871805543</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.761916923578752</v>
+        <v>0.7188205005178645</v>
       </c>
       <c r="M16">
-        <v>1.230052417688171</v>
+        <v>0.5376565545475529</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.372593410031783</v>
+        <v>3.173889284093065</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.363005551464312</v>
+        <v>1.581628510129917</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1457788184105127</v>
+        <v>0.2201377795250323</v>
       </c>
       <c r="E17">
-        <v>0.3422711682688018</v>
+        <v>0.2710736791445925</v>
       </c>
       <c r="F17">
-        <v>0.632181427270389</v>
+        <v>1.267181098916012</v>
       </c>
       <c r="G17">
-        <v>0.0007716342783254303</v>
+        <v>0.002435029865546064</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2972053213979358</v>
+        <v>0.9113192288883525</v>
       </c>
       <c r="J17">
-        <v>0.649696333518051</v>
+        <v>0.3981073767827894</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.689135756581464</v>
+        <v>0.6962789956161259</v>
       </c>
       <c r="M17">
-        <v>1.179395041681062</v>
+        <v>0.5219024202266667</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.298953629177021</v>
+        <v>3.17173779658043</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.280288600749714</v>
+        <v>1.555806959528582</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1445851071386457</v>
+        <v>0.2198865624746489</v>
       </c>
       <c r="E18">
-        <v>0.336822810115855</v>
+        <v>0.2694167480348568</v>
       </c>
       <c r="F18">
-        <v>0.6249023780295744</v>
+        <v>1.269146211057006</v>
       </c>
       <c r="G18">
-        <v>0.0007728469269470684</v>
+        <v>0.002435784481438765</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3013910528000707</v>
+        <v>0.9148520523860384</v>
       </c>
       <c r="J18">
-        <v>0.637820667287599</v>
+        <v>0.3943653500969475</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.647330575684634</v>
+        <v>0.6833070323532979</v>
       </c>
       <c r="M18">
-        <v>1.150298687301486</v>
+        <v>0.5128371464040242</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.257434653963543</v>
+        <v>3.170748903436532</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.252301910249059</v>
+        <v>1.547062692437521</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1441818826347827</v>
+        <v>0.2198020778225853</v>
       </c>
       <c r="E19">
-        <v>0.3349796732902988</v>
+        <v>0.268856204459901</v>
       </c>
       <c r="F19">
-        <v>0.6224836579591155</v>
+        <v>1.269827867331593</v>
       </c>
       <c r="G19">
-        <v>0.0007732588696774075</v>
+        <v>0.002436041795017759</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3028376943131583</v>
+        <v>0.9160600081605317</v>
       </c>
       <c r="J19">
-        <v>0.6338026541492923</v>
+        <v>0.3930987516870488</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.633185195122167</v>
+        <v>0.6789138263907262</v>
       </c>
       <c r="M19">
-        <v>1.140453697244311</v>
+        <v>0.5097671468665936</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.243516786371998</v>
+        <v>3.170456735724741</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.378324310461437</v>
+        <v>1.58640675843094</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1460002001756351</v>
+        <v>0.220184545867177</v>
       </c>
       <c r="E20">
-        <v>0.3432803010136283</v>
+        <v>0.2713805592059657</v>
       </c>
       <c r="F20">
-        <v>0.6335506610786155</v>
+        <v>1.266825147583141</v>
       </c>
       <c r="G20">
-        <v>0.0007714104852390546</v>
+        <v>0.002434891064048709</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2964447439987268</v>
+        <v>0.9106709897425951</v>
       </c>
       <c r="J20">
-        <v>0.6518956498146764</v>
+        <v>0.3988001231138014</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.69687743461796</v>
+        <v>0.6986792754789803</v>
       </c>
       <c r="M20">
-        <v>1.184783323825329</v>
+        <v>0.5235798840071624</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.306705168465811</v>
+        <v>3.171941088835212</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.803297964164187</v>
+        <v>1.718483328938191</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1521774604327177</v>
+        <v>0.2215091371315125</v>
       </c>
       <c r="E21">
-        <v>0.3712868100395355</v>
+        <v>0.2798934951658509</v>
       </c>
       <c r="F21">
-        <v>0.6740913256798251</v>
+        <v>1.257872280461164</v>
       </c>
       <c r="G21">
-        <v>0.0007652914267774759</v>
+        <v>0.002431150600523198</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2770932507690418</v>
+        <v>0.8933862810834157</v>
       </c>
       <c r="J21">
-        <v>0.7129034323835413</v>
+        <v>0.4179811921248699</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.911596456487814</v>
+        <v>0.7650066660186781</v>
       </c>
       <c r="M21">
-        <v>1.334239158422221</v>
+        <v>0.5699406906786777</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.52930918925793</v>
+        <v>3.179901346897282</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.082418803371752</v>
+        <v>1.804709311782801</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1562680961583993</v>
+        <v>0.2224039392984594</v>
       </c>
       <c r="E22">
-        <v>0.3896875080081514</v>
+        <v>0.2854795947153974</v>
       </c>
       <c r="F22">
-        <v>0.7032966833912724</v>
+        <v>1.252869680079996</v>
       </c>
       <c r="G22">
-        <v>0.0007613560914622257</v>
+        <v>0.002428799381151646</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2661316181525422</v>
+        <v>0.8827028588857253</v>
       </c>
       <c r="J22">
-        <v>0.7529593370208971</v>
+        <v>0.4305339363081515</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>2.052572933273638</v>
+        <v>0.808290088768473</v>
       </c>
       <c r="M22">
-        <v>1.432374550767591</v>
+        <v>0.6002012350800214</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.683185754643631</v>
+        <v>3.187326471707223</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.933306342863091</v>
+        <v>1.758698006624229</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1540797656265838</v>
+        <v>0.2219237272541079</v>
       </c>
       <c r="E23">
-        <v>0.3798572262024322</v>
+        <v>0.2824962045277744</v>
       </c>
       <c r="F23">
-        <v>0.6874474011707434</v>
+        <v>1.255461882636709</v>
       </c>
       <c r="G23">
-        <v>0.000763450894432978</v>
+        <v>0.002430045751277596</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2718211548768359</v>
+        <v>0.8883486521772177</v>
       </c>
       <c r="J23">
-        <v>0.7315624826764662</v>
+        <v>0.423832890841922</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.977264895325447</v>
+        <v>0.7851951721447961</v>
       </c>
       <c r="M23">
-        <v>1.379951031100461</v>
+        <v>0.5840543707687829</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.600243125090429</v>
+        <v>3.183159735984162</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.371398437687333</v>
+        <v>1.584246577374131</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1459000977918521</v>
+        <v>0.2201633928041531</v>
       </c>
       <c r="E24">
-        <v>0.3428240502905311</v>
+        <v>0.2712418127363421</v>
       </c>
       <c r="F24">
-        <v>0.6329307918487856</v>
+        <v>1.266985774672321</v>
       </c>
       <c r="G24">
-        <v>0.0007715116360548915</v>
+        <v>0.002434953782407656</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2967880531074414</v>
+        <v>0.9109638396557393</v>
       </c>
       <c r="J24">
-        <v>0.6509013015597418</v>
+        <v>0.3984869309346237</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.693377306121079</v>
+        <v>0.6975941479878998</v>
       </c>
       <c r="M24">
-        <v>1.182347197649221</v>
+        <v>0.522821527543357</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.303198161305403</v>
+        <v>3.17184840790955</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.769834738888278</v>
+        <v>1.395725865916859</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1372892204547469</v>
+        <v>0.2183919610284519</v>
       </c>
       <c r="E25">
-        <v>0.3032357615869614</v>
+        <v>0.259205012320983</v>
       </c>
       <c r="F25">
-        <v>0.5844525065683257</v>
+        <v>1.283046298340068</v>
       </c>
       <c r="G25">
-        <v>0.0007805069232575401</v>
+        <v>0.002440651435282986</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3303275172628695</v>
+        <v>0.9379856743496617</v>
       </c>
       <c r="J25">
-        <v>0.5645496813340003</v>
+        <v>0.3712323244072309</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.389255266554727</v>
+        <v>0.6028498480156657</v>
       </c>
       <c r="M25">
-        <v>0.9706977200262088</v>
+        <v>0.456624659418793</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.014317153074103</v>
+        <v>3.1691456204058</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_16/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.256650447503432</v>
+        <v>2.329356005676573</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2171995174122117</v>
+        <v>0.1311139959118321</v>
       </c>
       <c r="E2">
-        <v>0.2504361705155205</v>
+        <v>0.2743319759346718</v>
       </c>
       <c r="F2">
-        <v>1.297979492647961</v>
+        <v>0.556318980945484</v>
       </c>
       <c r="G2">
-        <v>0.002445197301900778</v>
+        <v>0.0007874164795644107</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9601397729862136</v>
+        <v>0.3600759637664872</v>
       </c>
       <c r="J2">
-        <v>0.3512477623970511</v>
+        <v>0.5013856848556202</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5328880917857077</v>
+        <v>1.166417165924116</v>
       </c>
       <c r="M2">
-        <v>0.4077681410099032</v>
+        <v>0.8156515337945436</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.175269015285494</v>
+        <v>1.824181811018747</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.162248352745678</v>
+        <v>2.031720550364184</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2164623856048351</v>
+        <v>0.1270246700257616</v>
       </c>
       <c r="E3">
-        <v>0.2445548809568407</v>
+        <v>0.2548693151428481</v>
       </c>
       <c r="F3">
-        <v>1.310031483620634</v>
+        <v>0.5413732965627318</v>
       </c>
       <c r="G3">
-        <v>0.002448498685657444</v>
+        <v>0.000792290473524779</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.9765614704292247</v>
+        <v>0.3831030505649764</v>
       </c>
       <c r="J3">
-        <v>0.337761140247693</v>
+        <v>0.458775051207823</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4853575348940069</v>
+        <v>1.015758689316726</v>
       </c>
       <c r="M3">
-        <v>0.3745916773015168</v>
+        <v>0.7108478960134264</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.184452731511499</v>
+        <v>1.707357486281097</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.104219100402702</v>
+        <v>1.849215320799146</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2160452416684251</v>
+        <v>0.1245590533674985</v>
       </c>
       <c r="E4">
-        <v>0.240975147994952</v>
+        <v>0.2429735356552953</v>
       </c>
       <c r="F4">
-        <v>1.318381942020856</v>
+        <v>0.5340479238579476</v>
       </c>
       <c r="G4">
-        <v>0.002450635166373738</v>
+        <v>0.0007953813589361242</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.9873384794979252</v>
+        <v>0.3985680678248862</v>
       </c>
       <c r="J4">
-        <v>0.3295105323216632</v>
+        <v>0.4326906348440787</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4561198320986364</v>
+        <v>0.9233392936441476</v>
       </c>
       <c r="M4">
-        <v>0.3541913984188128</v>
+        <v>0.6465677898301152</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.192565907845903</v>
+        <v>1.64094249062299</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.08055676267702</v>
+        <v>1.774879383562961</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2158842414296842</v>
+        <v>0.1235654397983978</v>
       </c>
       <c r="E5">
-        <v>0.239524473450814</v>
+        <v>0.2381386474270322</v>
       </c>
       <c r="F5">
-        <v>1.32202350526952</v>
+        <v>0.5315029841097498</v>
       </c>
       <c r="G5">
-        <v>0.00245153339765063</v>
+        <v>0.0007966661533768096</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.991904650770941</v>
+        <v>0.4051913438011177</v>
       </c>
       <c r="J5">
-        <v>0.3261563297484145</v>
+        <v>0.4220785598283214</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4441925401876858</v>
+        <v>0.8856870790329197</v>
       </c>
       <c r="M5">
-        <v>0.3458712077777477</v>
+        <v>0.6203822076238481</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.19649315448126</v>
+        <v>1.615128374564819</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.076626795647996</v>
+        <v>1.762537462356363</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2158580525516882</v>
+        <v>0.123401117959979</v>
       </c>
       <c r="E6">
-        <v>0.2392840848989444</v>
+        <v>0.2373365618100749</v>
       </c>
       <c r="F6">
-        <v>1.322642590468803</v>
+        <v>0.5311062710878502</v>
       </c>
       <c r="G6">
-        <v>0.002451684217478883</v>
+        <v>0.0007968810316445371</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.9926733947253155</v>
+        <v>0.4063101818168402</v>
       </c>
       <c r="J6">
-        <v>0.3255998607587429</v>
+        <v>0.4203174303369934</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4422112804160747</v>
+        <v>0.8794351921436601</v>
       </c>
       <c r="M6">
-        <v>0.3444892462595064</v>
+        <v>0.6160344248354122</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.197182748234866</v>
+        <v>1.610915060766814</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.103900040163722</v>
+        <v>1.84821268456966</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2160430338674288</v>
+        <v>0.1245456083053327</v>
       </c>
       <c r="E7">
-        <v>0.2409555506459711</v>
+        <v>0.2429082802500204</v>
       </c>
       <c r="F7">
-        <v>1.318430087429114</v>
+        <v>0.5340118520170805</v>
       </c>
       <c r="G7">
-        <v>0.002450647168194722</v>
+        <v>0.0007953985832621635</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.9873993542130997</v>
+        <v>0.3986561071410328</v>
       </c>
       <c r="J7">
-        <v>0.3294652635199071</v>
+        <v>0.4325474485044793</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4559590267529643</v>
+        <v>0.9228314797866517</v>
       </c>
       <c r="M7">
-        <v>0.3540792166275608</v>
+        <v>0.6462146158663842</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.192616358924255</v>
+        <v>1.640589399441581</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.224115252644822</v>
+        <v>2.226664955737022</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2169380383392721</v>
+        <v>0.1296944546649925</v>
       </c>
       <c r="E8">
-        <v>0.24840190124781</v>
+        <v>0.2676093676223061</v>
       </c>
       <c r="F8">
-        <v>1.30193755015253</v>
+        <v>0.5507657950466083</v>
       </c>
       <c r="G8">
-        <v>0.002446312960007197</v>
+        <v>0.00078907697343909</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9656578916760097</v>
+        <v>0.3677327988303318</v>
       </c>
       <c r="J8">
-        <v>0.3465915256707035</v>
+        <v>0.486675774114488</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.5165111890666196</v>
+        <v>1.114444786858314</v>
       </c>
       <c r="M8">
-        <v>0.3963354169588342</v>
+        <v>0.7794954497554087</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.177921324384471</v>
+        <v>1.782744168714629</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.459273310236938</v>
+        <v>2.972000041805586</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2189714544029684</v>
+        <v>0.1401631240772829</v>
       </c>
       <c r="E9">
-        <v>0.2632454320157862</v>
+        <v>0.3165291948090143</v>
       </c>
       <c r="F9">
-        <v>1.277152559698152</v>
+        <v>0.5995242102418956</v>
       </c>
       <c r="G9">
-        <v>0.002438677935320098</v>
+        <v>0.0007774341393807688</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.9285324339611414</v>
+        <v>0.3182045511948353</v>
       </c>
       <c r="J9">
-        <v>0.3804008965574752</v>
+        <v>0.5935635706524494</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.6347971260456688</v>
+        <v>1.491485617009545</v>
       </c>
       <c r="M9">
-        <v>0.4789420104503535</v>
+        <v>1.041838096691279</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.168792056765938</v>
+        <v>2.107833565813451</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.631625493301499</v>
+        <v>3.523482540887983</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2206312724491042</v>
+        <v>0.1481026284117419</v>
       </c>
       <c r="E10">
-        <v>0.2742886722565245</v>
+        <v>0.3528443523573728</v>
       </c>
       <c r="F10">
-        <v>1.263571573650943</v>
+        <v>0.6468488269813619</v>
       </c>
       <c r="G10">
-        <v>0.002433590036408743</v>
+        <v>0.0007693015081648689</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.9046186492261015</v>
+        <v>0.2894597843533724</v>
       </c>
       <c r="J10">
-        <v>0.4053601775859761</v>
+        <v>0.6727357128334575</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.7213917171540061</v>
+        <v>1.77022989216357</v>
       </c>
       <c r="M10">
-        <v>0.5394536667439382</v>
+        <v>1.235838572249492</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.174168498705797</v>
+        <v>2.381112667528555</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.70993023340219</v>
+        <v>3.775684711023246</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2214216013666359</v>
+        <v>0.1517741288817049</v>
       </c>
       <c r="E11">
-        <v>0.2793405415612753</v>
+        <v>0.36946658310125</v>
       </c>
       <c r="F11">
-        <v>1.258402994928403</v>
+        <v>0.6713108638450791</v>
       </c>
       <c r="G11">
-        <v>0.002431387525838223</v>
+        <v>0.0007656841235739464</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8944705854440151</v>
+        <v>0.278251082755574</v>
       </c>
       <c r="J11">
-        <v>0.4167372645420073</v>
+        <v>0.7089399636040952</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.7607124624745154</v>
+        <v>1.897647664044626</v>
       </c>
       <c r="M11">
-        <v>0.5669387801064403</v>
+        <v>1.324529560523473</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.179256128727957</v>
+        <v>2.514410984863218</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.739566596871043</v>
+        <v>3.871420552980794</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2217258808594877</v>
+        <v>0.1531735638405465</v>
       </c>
       <c r="E12">
-        <v>0.2812574343280048</v>
+        <v>0.3757775113205781</v>
       </c>
       <c r="F12">
-        <v>1.256591325854032</v>
+        <v>0.6810354372117473</v>
       </c>
       <c r="G12">
-        <v>0.002430569511320345</v>
+        <v>0.0007643253196510351</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8907329131093711</v>
+        <v>0.2742940990861946</v>
       </c>
       <c r="J12">
-        <v>0.4210484345163934</v>
+        <v>0.7226808860914531</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.7755912287476292</v>
+        <v>1.946006846973489</v>
       </c>
       <c r="M12">
-        <v>0.5773401652206189</v>
+        <v>1.358192106887842</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.181563920981887</v>
+        <v>2.566315641084145</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.733184611401953</v>
+        <v>3.850791100256913</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2216601276412646</v>
+        <v>0.1528717559048829</v>
       </c>
       <c r="E13">
-        <v>0.2808444287156888</v>
+        <v>0.3744175787066126</v>
       </c>
       <c r="F13">
-        <v>1.256975021088891</v>
+        <v>0.6789198955967777</v>
       </c>
       <c r="G13">
-        <v>0.002430744973740316</v>
+        <v>0.0007646174856079563</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8915332075254021</v>
+        <v>0.2751332016939294</v>
       </c>
       <c r="J13">
-        <v>0.4201198235063401</v>
+        <v>0.7197200778612682</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.7723873294804946</v>
+        <v>1.935586647661324</v>
       </c>
       <c r="M13">
-        <v>0.5751003452108279</v>
+        <v>1.350938605245943</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.181049920893344</v>
+        <v>2.555071270785959</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.71236876395443</v>
+        <v>3.783556051668938</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2214465348476296</v>
+        <v>0.1518890752672846</v>
       </c>
       <c r="E14">
-        <v>0.2794981692825189</v>
+        <v>0.3699854466550079</v>
       </c>
       <c r="F14">
-        <v>1.258251028321595</v>
+        <v>0.6721014270792267</v>
       </c>
       <c r="G14">
-        <v>0.002431319906682981</v>
+        <v>0.0007655721178517603</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8941609761091378</v>
+        <v>0.2779196634031535</v>
       </c>
       <c r="J14">
-        <v>0.4170918909141079</v>
+        <v>0.7100697884248319</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.7619367757902751</v>
+        <v>1.901623898868024</v>
       </c>
       <c r="M14">
-        <v>0.5677946446206192</v>
+        <v>1.327297366585654</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.179438344472231</v>
+        <v>2.518651784329279</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.699616330499794</v>
+        <v>3.742404182111329</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.22131635197848</v>
+        <v>0.1512883590583556</v>
       </c>
       <c r="E15">
-        <v>0.2786740431680741</v>
+        <v>0.3672728348745764</v>
       </c>
       <c r="F15">
-        <v>1.259051587516723</v>
+        <v>0.6679862230530489</v>
       </c>
       <c r="G15">
-        <v>0.002431674154668861</v>
+        <v>0.0007661582682729874</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8957842619967771</v>
+        <v>0.2796644814381359</v>
       </c>
       <c r="J15">
-        <v>0.4152375627305105</v>
+        <v>0.7041628925465631</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.7555340330640092</v>
+        <v>1.880835543030173</v>
       </c>
       <c r="M15">
-        <v>0.5633188108589025</v>
+        <v>1.312826915829845</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.178500892252856</v>
+        <v>2.496533924057587</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.626505954879235</v>
+        <v>3.507030733386216</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2205803260856598</v>
+        <v>0.1478639330758753</v>
       </c>
       <c r="E16">
-        <v>0.2739590717494593</v>
+        <v>0.3517602535369875</v>
       </c>
       <c r="F16">
-        <v>1.263929699754719</v>
+        <v>0.6453125114410909</v>
       </c>
       <c r="G16">
-        <v>0.002433736222645613</v>
+        <v>0.0007695394998719344</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.9052965594687663</v>
+        <v>0.2902314665052614</v>
       </c>
       <c r="J16">
-        <v>0.4046170871805543</v>
+        <v>0.6703738100177361</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.7188205005178645</v>
+        <v>1.761916923578838</v>
       </c>
       <c r="M16">
-        <v>0.5376565545475529</v>
+        <v>1.230052417688199</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.173889284093065</v>
+        <v>2.372593410031726</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.581628510129917</v>
+        <v>3.363005551464084</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2201377795250323</v>
+        <v>0.1457788184108537</v>
       </c>
       <c r="E17">
-        <v>0.2710736791445925</v>
+        <v>0.342271168268752</v>
       </c>
       <c r="F17">
-        <v>1.267181098916012</v>
+        <v>0.632181427270389</v>
       </c>
       <c r="G17">
-        <v>0.002435029865546064</v>
+        <v>0.0007716342783269476</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.9113192288883525</v>
+        <v>0.2972053213979287</v>
       </c>
       <c r="J17">
-        <v>0.3981073767827894</v>
+        <v>0.6496963335180084</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.6962789956161259</v>
+        <v>1.689135756581408</v>
       </c>
       <c r="M17">
-        <v>0.5219024202266667</v>
+        <v>1.179395041681062</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.17173779658043</v>
+        <v>2.298953629177021</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.555806959528582</v>
+        <v>3.280288600749827</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2198865624746489</v>
+        <v>0.1445851071388731</v>
       </c>
       <c r="E18">
-        <v>0.2694167480348568</v>
+        <v>0.336822810115855</v>
       </c>
       <c r="F18">
-        <v>1.269146211057006</v>
+        <v>0.6249023780295886</v>
       </c>
       <c r="G18">
-        <v>0.002435784481438765</v>
+        <v>0.0007728469269467608</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.9148520523860384</v>
+        <v>0.3013910528000778</v>
       </c>
       <c r="J18">
-        <v>0.3943653500969475</v>
+        <v>0.6378206672876274</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.6833070323532979</v>
+        <v>1.647330575684578</v>
       </c>
       <c r="M18">
-        <v>0.5128371464040242</v>
+        <v>1.150298687301486</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.170748903436532</v>
+        <v>2.257434653963543</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.547062692437521</v>
+        <v>3.252301910249003</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2198020778225853</v>
+        <v>0.1441818826348253</v>
       </c>
       <c r="E19">
-        <v>0.268856204459901</v>
+        <v>0.3349796732902774</v>
       </c>
       <c r="F19">
-        <v>1.269827867331593</v>
+        <v>0.6224836579591084</v>
       </c>
       <c r="G19">
-        <v>0.002436041795017759</v>
+        <v>0.0007732588697056397</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.9160600081605317</v>
+        <v>0.3028376943131548</v>
       </c>
       <c r="J19">
-        <v>0.3930987516870488</v>
+        <v>0.6338026541493065</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.6789138263907262</v>
+        <v>1.633185195122053</v>
       </c>
       <c r="M19">
-        <v>0.5097671468665936</v>
+        <v>1.140453697244325</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.170456735724741</v>
+        <v>2.243516786371941</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.58640675843094</v>
+        <v>3.378324310461494</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.220184545867177</v>
+        <v>0.1460002001756351</v>
       </c>
       <c r="E20">
-        <v>0.2713805592059657</v>
+        <v>0.3432803010136283</v>
       </c>
       <c r="F20">
-        <v>1.266825147583141</v>
+        <v>0.6335506610786084</v>
       </c>
       <c r="G20">
-        <v>0.002434891064048709</v>
+        <v>0.0007714104852107323</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.9106709897425951</v>
+        <v>0.2964447439987268</v>
       </c>
       <c r="J20">
-        <v>0.3988001231138014</v>
+        <v>0.6518956498145059</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.6986792754789803</v>
+        <v>1.696877434618017</v>
       </c>
       <c r="M20">
-        <v>0.5235798840071624</v>
+        <v>1.184783323825343</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.171941088835212</v>
+        <v>2.306705168465811</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.718483328938191</v>
+        <v>3.80329796416413</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2215091371315125</v>
+        <v>0.1521774604329522</v>
       </c>
       <c r="E21">
-        <v>0.2798934951658509</v>
+        <v>0.3712868100395639</v>
       </c>
       <c r="F21">
-        <v>1.257872280461164</v>
+        <v>0.6740913256798109</v>
       </c>
       <c r="G21">
-        <v>0.002431150600523198</v>
+        <v>0.000765291426776419</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8933862810834157</v>
+        <v>0.2770932507690063</v>
       </c>
       <c r="J21">
-        <v>0.4179811921248699</v>
+        <v>0.7129034323835555</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.7650066660186781</v>
+        <v>1.911596456487842</v>
       </c>
       <c r="M21">
-        <v>0.5699406906786777</v>
+        <v>1.334239158422193</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.179901346897282</v>
+        <v>2.52930918925793</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.804709311782801</v>
+        <v>4.082418803371866</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2224039392984594</v>
+        <v>0.1562680961582856</v>
       </c>
       <c r="E22">
-        <v>0.2854795947153974</v>
+        <v>0.3896875080081017</v>
       </c>
       <c r="F22">
-        <v>1.252869680079996</v>
+        <v>0.7032966833912724</v>
       </c>
       <c r="G22">
-        <v>0.002428799381151646</v>
+        <v>0.000761356091461373</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8827028588857253</v>
+        <v>0.2661316181525351</v>
       </c>
       <c r="J22">
-        <v>0.4305339363081515</v>
+        <v>0.7529593370209682</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.808290088768473</v>
+        <v>2.052572933273638</v>
       </c>
       <c r="M22">
-        <v>0.6002012350800214</v>
+        <v>1.432374550767577</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.187326471707223</v>
+        <v>2.683185754643574</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.758698006624229</v>
+        <v>3.933306342863375</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2219237272541079</v>
+        <v>0.1540797656264843</v>
       </c>
       <c r="E23">
-        <v>0.2824962045277744</v>
+        <v>0.3798572262024464</v>
       </c>
       <c r="F23">
-        <v>1.255461882636709</v>
+        <v>0.6874474011707434</v>
       </c>
       <c r="G23">
-        <v>0.002430045751277596</v>
+        <v>0.0007634508943692527</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.8883486521772177</v>
+        <v>0.2718211548768572</v>
       </c>
       <c r="J23">
-        <v>0.423832890841922</v>
+        <v>0.7315624826764378</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.7851951721447961</v>
+        <v>1.977264895325362</v>
       </c>
       <c r="M23">
-        <v>0.5840543707687829</v>
+        <v>1.379951031100489</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.183159735984162</v>
+        <v>2.600243125090344</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.584246577374131</v>
+        <v>3.371398437687105</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2201633928041531</v>
+        <v>0.1459000977917952</v>
       </c>
       <c r="E24">
-        <v>0.2712418127363421</v>
+        <v>0.3428240502905453</v>
       </c>
       <c r="F24">
-        <v>1.266985774672321</v>
+        <v>0.6329307918487999</v>
       </c>
       <c r="G24">
-        <v>0.002434953782407656</v>
+        <v>0.0007715116361129697</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.9109638396557393</v>
+        <v>0.2967880531074449</v>
       </c>
       <c r="J24">
-        <v>0.3984869309346237</v>
+        <v>0.6509013015597986</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.6975941479878998</v>
+        <v>1.693377306121022</v>
       </c>
       <c r="M24">
-        <v>0.522821527543357</v>
+        <v>1.18234719764925</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.17184840790955</v>
+        <v>2.303198161305374</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.395725865916859</v>
+        <v>2.769834738888278</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2183919610284519</v>
+        <v>0.1372892204545622</v>
       </c>
       <c r="E25">
-        <v>0.259205012320983</v>
+        <v>0.3032357615869614</v>
       </c>
       <c r="F25">
-        <v>1.283046298340068</v>
+        <v>0.5844525065683186</v>
       </c>
       <c r="G25">
-        <v>0.002440651435282986</v>
+        <v>0.0007805069232853861</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.9379856743496617</v>
+        <v>0.3303275172628766</v>
       </c>
       <c r="J25">
-        <v>0.3712323244072309</v>
+        <v>0.5645496813340571</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.6028498480156657</v>
+        <v>1.389255266554756</v>
       </c>
       <c r="M25">
-        <v>0.456624659418793</v>
+        <v>0.9706977200262159</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.1691456204058</v>
+        <v>2.014317153074103</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_16/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.329356005676573</v>
+        <v>0.2737769709944331</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1311139959118321</v>
+        <v>0.1814974378678045</v>
       </c>
       <c r="E2">
-        <v>0.2743319759346718</v>
+        <v>0.1210838434946346</v>
       </c>
       <c r="F2">
-        <v>0.556318980945484</v>
+        <v>0.5728608524985859</v>
       </c>
       <c r="G2">
-        <v>0.0007874164795644107</v>
+        <v>0.2991745357103923</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0003578412337370551</v>
       </c>
       <c r="I2">
-        <v>0.3600759637664872</v>
+        <v>0.010758862734221</v>
       </c>
       <c r="J2">
-        <v>0.5013856848556202</v>
+        <v>0.2758283270692772</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2943500116667472</v>
       </c>
       <c r="L2">
-        <v>1.166417165924116</v>
+        <v>0.118945785598811</v>
       </c>
       <c r="M2">
-        <v>0.8156515337945436</v>
+        <v>1.906105375559918</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.824181811018747</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.5025576803871701</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.160015269176853</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.031720550364184</v>
+        <v>0.2382421739516047</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1270246700257616</v>
+        <v>0.1645133888203674</v>
       </c>
       <c r="E3">
-        <v>0.2548693151428481</v>
+        <v>0.1120597766944762</v>
       </c>
       <c r="F3">
-        <v>0.5413732965627318</v>
+        <v>0.5525384343588442</v>
       </c>
       <c r="G3">
-        <v>0.000792290473524779</v>
+        <v>0.2897563600070256</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.001003786397104744</v>
       </c>
       <c r="I3">
-        <v>0.3831030505649764</v>
+        <v>0.01230162804133528</v>
       </c>
       <c r="J3">
-        <v>0.458775051207823</v>
+        <v>0.2759211182378394</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3057455493531949</v>
       </c>
       <c r="L3">
-        <v>1.015758689316726</v>
+        <v>0.1118102960645189</v>
       </c>
       <c r="M3">
-        <v>0.7108478960134264</v>
+        <v>1.675310569900205</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.707357486281097</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.4382190173889597</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.139953096663007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.849215320799146</v>
+        <v>0.2160174415183889</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1245590533674985</v>
+        <v>0.1541211038375678</v>
       </c>
       <c r="E4">
-        <v>0.2429735356552953</v>
+        <v>0.1065014541913101</v>
       </c>
       <c r="F4">
-        <v>0.5340479238579476</v>
+        <v>0.5405662900461152</v>
       </c>
       <c r="G4">
-        <v>0.0007953813589361242</v>
+        <v>0.2843770003835502</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.001584808442198438</v>
       </c>
       <c r="I4">
-        <v>0.3985680678248862</v>
+        <v>0.01336942587177115</v>
       </c>
       <c r="J4">
-        <v>0.4326906348440787</v>
+        <v>0.2762554503282431</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3130914826928857</v>
       </c>
       <c r="L4">
-        <v>0.9233392936441476</v>
+        <v>0.1073766269562313</v>
       </c>
       <c r="M4">
-        <v>0.6465677898301152</v>
+        <v>1.534195701769505</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.64094249062299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.3988590489669974</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.129063264615297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.774879383562961</v>
+        <v>0.2060113892004551</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1235654397983978</v>
+        <v>0.1499309683287748</v>
       </c>
       <c r="E5">
-        <v>0.2381386474270322</v>
+        <v>0.104205829476026</v>
       </c>
       <c r="F5">
-        <v>0.5315029841097498</v>
+        <v>0.5354200200457271</v>
       </c>
       <c r="G5">
-        <v>0.0007966661533768096</v>
+        <v>0.2819718300058867</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.001865985606259057</v>
       </c>
       <c r="I5">
-        <v>0.4051913438011177</v>
+        <v>0.0139237500440248</v>
       </c>
       <c r="J5">
-        <v>0.4220785598283214</v>
+        <v>0.2762916138860447</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3161744792379588</v>
       </c>
       <c r="L5">
-        <v>0.8856870790329197</v>
+        <v>0.105500769321015</v>
       </c>
       <c r="M5">
-        <v>0.6203822076238481</v>
+        <v>1.479055850455865</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.615128374564819</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.3833036361593045</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.123962605487321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.762537462356363</v>
+        <v>0.2033065187598737</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.123401117959979</v>
+        <v>0.1492806499811934</v>
       </c>
       <c r="E6">
-        <v>0.2373365618100749</v>
+        <v>0.1037930280547208</v>
       </c>
       <c r="F6">
-        <v>0.5311062710878502</v>
+        <v>0.5340966963229903</v>
       </c>
       <c r="G6">
-        <v>0.0007968810316445371</v>
+        <v>0.2811998585846425</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.001915498669536664</v>
       </c>
       <c r="I6">
-        <v>0.4063101818168402</v>
+        <v>0.01413442078148908</v>
       </c>
       <c r="J6">
-        <v>0.4203174303369934</v>
+        <v>0.276096668240811</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3167006222186739</v>
       </c>
       <c r="L6">
-        <v>0.8794351921436601</v>
+        <v>0.1051207180991618</v>
       </c>
       <c r="M6">
-        <v>0.6160344248354122</v>
+        <v>1.472643574804579</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.610915060766814</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.3812762404419558</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.121905056451823</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.84821268456966</v>
+        <v>0.2130366103086629</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1245456083053327</v>
+        <v>0.1541875370410537</v>
       </c>
       <c r="E7">
-        <v>0.2429082802500204</v>
+        <v>0.1063851635118205</v>
       </c>
       <c r="F7">
-        <v>0.5340118520170805</v>
+        <v>0.5391992924199371</v>
       </c>
       <c r="G7">
-        <v>0.0007953985832621635</v>
+        <v>0.2833133654263875</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.00158890949058843</v>
       </c>
       <c r="I7">
-        <v>0.3986561071410328</v>
+        <v>0.01367955957284028</v>
       </c>
       <c r="J7">
-        <v>0.4325474485044793</v>
+        <v>0.2756980600468424</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3131660974401962</v>
       </c>
       <c r="L7">
-        <v>0.9228314797866517</v>
+        <v>0.1071666525250876</v>
       </c>
       <c r="M7">
-        <v>0.6462146158663842</v>
+        <v>1.540943326336475</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.640589399441581</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.4001642431845411</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.125640779842598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.226664955737022</v>
+        <v>0.2578046835358663</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1296944546649925</v>
+        <v>0.1757964989944441</v>
       </c>
       <c r="E8">
-        <v>0.2676093676223061</v>
+        <v>0.1178632497222765</v>
       </c>
       <c r="F8">
-        <v>0.5507657950466083</v>
+        <v>0.5640426206386522</v>
       </c>
       <c r="G8">
-        <v>0.00078907697343909</v>
+        <v>0.2944881051956401</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0005412539511092662</v>
       </c>
       <c r="I8">
-        <v>0.3677327988303318</v>
+        <v>0.01163181013925296</v>
       </c>
       <c r="J8">
-        <v>0.486675774114488</v>
+        <v>0.2750736804164333</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.2983042324647975</v>
       </c>
       <c r="L8">
-        <v>1.114444786858314</v>
+        <v>0.1162527040173416</v>
       </c>
       <c r="M8">
-        <v>0.7794954497554087</v>
+        <v>1.836403847226393</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.782744168714629</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.4823598699276417</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.148402383926168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.972000041805586</v>
+        <v>0.3474301218731739</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1401631240772829</v>
+        <v>0.2182845626930572</v>
       </c>
       <c r="E9">
-        <v>0.3165291948090143</v>
+        <v>0.140412597659278</v>
       </c>
       <c r="F9">
-        <v>0.5995242102418956</v>
+        <v>0.6193338716527137</v>
       </c>
       <c r="G9">
-        <v>0.0007774341393807688</v>
+        <v>0.3216658159049715</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>4.956379685649992E-05</v>
       </c>
       <c r="I9">
-        <v>0.3182045511948353</v>
+        <v>0.008143714011739078</v>
       </c>
       <c r="J9">
-        <v>0.5935635706524494</v>
+        <v>0.277131900411284</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.2718702856838053</v>
       </c>
       <c r="L9">
-        <v>1.491485617009545</v>
+        <v>0.1340083375905508</v>
       </c>
       <c r="M9">
-        <v>1.041838096691279</v>
+        <v>2.407700273012694</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.107833565813451</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.642154603503883</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.211009949665751</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.523482540887983</v>
+        <v>0.4117385689423259</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1481026284117419</v>
+        <v>0.2446400924723235</v>
       </c>
       <c r="E10">
-        <v>0.3528443523573728</v>
+        <v>0.1510250608904791</v>
       </c>
       <c r="F10">
-        <v>0.6468488269813619</v>
+        <v>0.6519344214868568</v>
       </c>
       <c r="G10">
-        <v>0.0007693015081648689</v>
+        <v>0.3379599672256788</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0009001221551772076</v>
       </c>
       <c r="I10">
-        <v>0.2894597843533724</v>
+        <v>0.006409654459209158</v>
       </c>
       <c r="J10">
-        <v>0.6727357128334575</v>
+        <v>0.2771032832312414</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.2547107860369149</v>
       </c>
       <c r="L10">
-        <v>1.77022989216357</v>
+        <v>0.1401866076363234</v>
       </c>
       <c r="M10">
-        <v>1.235838572249492</v>
+        <v>2.836802416697395</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.381112667528555</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.7505010227042845</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.245954903233127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.775684711023246</v>
+        <v>0.4543231818851297</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1517741288817049</v>
+        <v>0.213388283634913</v>
       </c>
       <c r="E11">
-        <v>0.36946658310125</v>
+        <v>0.1106260764580682</v>
       </c>
       <c r="F11">
-        <v>0.6713108638450791</v>
+        <v>0.5781051677401692</v>
       </c>
       <c r="G11">
-        <v>0.0007656841235739464</v>
+        <v>0.297105534548507</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01942297595211784</v>
       </c>
       <c r="I11">
-        <v>0.278251082755574</v>
+        <v>0.006386206369044523</v>
       </c>
       <c r="J11">
-        <v>0.7089399636040952</v>
+        <v>0.2527159668898662</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2524042039680072</v>
       </c>
       <c r="L11">
-        <v>1.897647664044626</v>
+        <v>0.0979159203192097</v>
       </c>
       <c r="M11">
-        <v>1.324529560523473</v>
+        <v>3.055795202164887</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.514410984863218</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.7086487964385455</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.108453480641032</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.871420552980794</v>
+        <v>0.482543715174728</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1531735638405465</v>
+        <v>0.183380084479154</v>
       </c>
       <c r="E12">
-        <v>0.3757775113205781</v>
+        <v>0.08245596927292986</v>
       </c>
       <c r="F12">
-        <v>0.6810354372117473</v>
+        <v>0.5139675979590024</v>
       </c>
       <c r="G12">
-        <v>0.0007643253196510351</v>
+        <v>0.2623101416052975</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05796725910177969</v>
       </c>
       <c r="I12">
-        <v>0.2742940990861946</v>
+        <v>0.006207601083903391</v>
       </c>
       <c r="J12">
-        <v>0.7226808860914531</v>
+        <v>0.2335623128078339</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2557212801520841</v>
       </c>
       <c r="L12">
-        <v>1.946006846973489</v>
+        <v>0.07770234995479441</v>
       </c>
       <c r="M12">
-        <v>1.358192106887842</v>
+        <v>3.137817328106564</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.566315641084145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.6494692080902738</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.9946361637131815</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.850791100256913</v>
+        <v>0.4965640546107579</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1528717559048829</v>
+        <v>0.1529314264577692</v>
       </c>
       <c r="E13">
-        <v>0.3744175787066126</v>
+        <v>0.06193782811359583</v>
       </c>
       <c r="F13">
-        <v>0.6789198955967777</v>
+        <v>0.4515854254639251</v>
       </c>
       <c r="G13">
-        <v>0.0007646174856079563</v>
+        <v>0.2284972813107231</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1135119551673398</v>
       </c>
       <c r="I13">
-        <v>0.2751332016939294</v>
+        <v>0.006307794556431823</v>
       </c>
       <c r="J13">
-        <v>0.7197200778612682</v>
+        <v>0.2164002693322473</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2634198884703007</v>
       </c>
       <c r="L13">
-        <v>1.935586647661324</v>
+        <v>0.07275125679997441</v>
       </c>
       <c r="M13">
-        <v>1.350938605245943</v>
+        <v>3.13029451395613</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.555071270785959</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.5763747538940649</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.8869833220829548</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.783556051668938</v>
+        <v>0.4989750450999111</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1518890752672846</v>
+        <v>0.13192510054796</v>
       </c>
       <c r="E14">
-        <v>0.3699854466550079</v>
+        <v>0.05216985516803874</v>
       </c>
       <c r="F14">
-        <v>0.6721014270792267</v>
+        <v>0.4092064998271425</v>
       </c>
       <c r="G14">
-        <v>0.0007655721178517603</v>
+        <v>0.2054551962787485</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1627015269700394</v>
       </c>
       <c r="I14">
-        <v>0.2779196634031535</v>
+        <v>0.006596815477260876</v>
       </c>
       <c r="J14">
-        <v>0.7100697884248319</v>
+        <v>0.2053336093953249</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2711527949068717</v>
       </c>
       <c r="L14">
-        <v>1.901623898868024</v>
+        <v>0.07826781163699614</v>
       </c>
       <c r="M14">
-        <v>1.327297366585654</v>
+        <v>3.086847301860331</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.518651784329279</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.5200403467897985</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.814897126793781</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.742404182111329</v>
+        <v>0.4950451444381088</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1512883590583556</v>
+        <v>0.1265211195825628</v>
       </c>
       <c r="E15">
-        <v>0.3672728348745764</v>
+        <v>0.05038293191017384</v>
       </c>
       <c r="F15">
-        <v>0.6679862230530489</v>
+        <v>0.398566654275804</v>
       </c>
       <c r="G15">
-        <v>0.0007661582682729874</v>
+        <v>0.1995924084271223</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1751459061424328</v>
       </c>
       <c r="I15">
-        <v>0.2796644814381359</v>
+        <v>0.006861319200012872</v>
       </c>
       <c r="J15">
-        <v>0.7041628925465631</v>
+        <v>0.2028379244354639</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2740334266719771</v>
       </c>
       <c r="L15">
-        <v>1.880835543030173</v>
+        <v>0.08069522745895696</v>
       </c>
       <c r="M15">
-        <v>1.312826915829845</v>
+        <v>3.060332224318216</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.496533924057587</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.5037999414459762</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.7972068983346787</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.507030733386216</v>
+        <v>0.4621529479323243</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1478639330758753</v>
+        <v>0.1222137054137704</v>
       </c>
       <c r="E16">
-        <v>0.3517602535369875</v>
+        <v>0.05045810234775683</v>
       </c>
       <c r="F16">
-        <v>0.6453125114410909</v>
+        <v>0.3970718309785966</v>
       </c>
       <c r="G16">
-        <v>0.0007695394998719344</v>
+        <v>0.1989275712392029</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1621049893109472</v>
       </c>
       <c r="I16">
-        <v>0.2902314665052614</v>
+        <v>0.007704047875753517</v>
       </c>
       <c r="J16">
-        <v>0.6703738100177361</v>
+        <v>0.2059007859127533</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2789296473295249</v>
       </c>
       <c r="L16">
-        <v>1.761916923578838</v>
+        <v>0.07898636646152823</v>
       </c>
       <c r="M16">
-        <v>1.230052417688199</v>
+        <v>2.880581754570727</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.372593410031726</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.4749304899293207</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.8020190493754455</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.363005551464084</v>
+        <v>0.4356011097004995</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1457788184108537</v>
+        <v>0.1297514183339672</v>
       </c>
       <c r="E17">
-        <v>0.342271168268752</v>
+        <v>0.05490442816781194</v>
       </c>
       <c r="F17">
-        <v>0.632181427270389</v>
+        <v>0.4180509154408867</v>
       </c>
       <c r="G17">
-        <v>0.0007716342783269476</v>
+        <v>0.2104981970951343</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1241858198114301</v>
       </c>
       <c r="I17">
-        <v>0.2972053213979287</v>
+        <v>0.008234131717877347</v>
       </c>
       <c r="J17">
-        <v>0.6496963335180084</v>
+        <v>0.214094928100927</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2786223117005555</v>
       </c>
       <c r="L17">
-        <v>1.689135756581408</v>
+        <v>0.0732946327400672</v>
       </c>
       <c r="M17">
-        <v>1.179395041681062</v>
+        <v>2.766561268330946</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.298953629177021</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.4823030659085603</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.8435939510597734</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.280288600749827</v>
+        <v>0.4145528792936233</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1445851071388731</v>
+        <v>0.1494461340230799</v>
       </c>
       <c r="E18">
-        <v>0.336822810115855</v>
+        <v>0.06764025941347285</v>
       </c>
       <c r="F18">
-        <v>0.6249023780295886</v>
+        <v>0.4633352408904159</v>
       </c>
       <c r="G18">
-        <v>0.0007728469269467608</v>
+        <v>0.2354416526635674</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07133702044819046</v>
       </c>
       <c r="I18">
-        <v>0.3013910528000778</v>
+        <v>0.008203973610682702</v>
       </c>
       <c r="J18">
-        <v>0.6378206672876274</v>
+        <v>0.2283407513741409</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2740479464863199</v>
       </c>
       <c r="L18">
-        <v>1.647330575684578</v>
+        <v>0.07151491605018673</v>
       </c>
       <c r="M18">
-        <v>1.150298687301486</v>
+        <v>2.689082485194319</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.257434653963543</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.5216450405242696</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.9262492701430318</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.252301910249003</v>
+        <v>0.3940497841749249</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1441818826348253</v>
+        <v>0.1796192640222642</v>
       </c>
       <c r="E19">
-        <v>0.3349796732902774</v>
+        <v>0.0920825071732132</v>
       </c>
       <c r="F19">
-        <v>0.6224836579591084</v>
+        <v>0.5260536121719852</v>
       </c>
       <c r="G19">
-        <v>0.0007732588697056397</v>
+        <v>0.2694180938910407</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02618573039497107</v>
       </c>
       <c r="I19">
-        <v>0.3028376943131548</v>
+        <v>0.00832042835337532</v>
       </c>
       <c r="J19">
-        <v>0.6338026541493065</v>
+        <v>0.2462560013575725</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2690623473088873</v>
       </c>
       <c r="L19">
-        <v>1.633185195122053</v>
+        <v>0.08482472990556644</v>
       </c>
       <c r="M19">
-        <v>1.140453697244325</v>
+        <v>2.661679312847383</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.243516786371941</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.5884814962118625</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.035792427330009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.378324310461494</v>
+        <v>0.3859918802540108</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1460002001756351</v>
+        <v>0.2378718028567448</v>
       </c>
       <c r="E20">
-        <v>0.3432803010136283</v>
+        <v>0.1477337741366576</v>
       </c>
       <c r="F20">
-        <v>0.6335506610786084</v>
+        <v>0.6388155986418553</v>
       </c>
       <c r="G20">
-        <v>0.0007714104852107323</v>
+        <v>0.3301708913052792</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0005823973326868348</v>
       </c>
       <c r="I20">
-        <v>0.2964447439987268</v>
+        <v>0.007727240907781763</v>
       </c>
       <c r="J20">
-        <v>0.6518956498145059</v>
+        <v>0.2752283465666636</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.259741993853372</v>
       </c>
       <c r="L20">
-        <v>1.696877434618017</v>
+        <v>0.1377389274276197</v>
       </c>
       <c r="M20">
-        <v>1.184783323825343</v>
+        <v>2.747997220496757</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.306705168465811</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.7263448710459244</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.22539980485999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.80329796416413</v>
+        <v>0.433352036431927</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1521774604329522</v>
+        <v>0.2661555213545483</v>
       </c>
       <c r="E21">
-        <v>0.3712868100395639</v>
+        <v>0.165040026541007</v>
       </c>
       <c r="F21">
-        <v>0.6740913256798109</v>
+        <v>0.681813939530322</v>
       </c>
       <c r="G21">
-        <v>0.000765291426776419</v>
+        <v>0.3529362114042698</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.001464562270213965</v>
       </c>
       <c r="I21">
-        <v>0.2770932507690063</v>
+        <v>0.006384803432833763</v>
       </c>
       <c r="J21">
-        <v>0.7129034323835555</v>
+        <v>0.280492181757154</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.2467027921149478</v>
       </c>
       <c r="L21">
-        <v>1.911596456487842</v>
+        <v>0.1527172310218248</v>
       </c>
       <c r="M21">
-        <v>1.334239158422193</v>
+        <v>3.072227633630746</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.52930918925793</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.8258144359856843</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.285032827697933</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.082418803371866</v>
+        <v>0.4686835728342373</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1562680961582856</v>
+        <v>0.2819077594433566</v>
       </c>
       <c r="E22">
-        <v>0.3896875080081017</v>
+        <v>0.1734715456588276</v>
       </c>
       <c r="F22">
-        <v>0.7032966833912724</v>
+        <v>0.7069285895123869</v>
       </c>
       <c r="G22">
-        <v>0.000761356091461373</v>
+        <v>0.366798433499568</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.002333478069938999</v>
       </c>
       <c r="I22">
-        <v>0.2661316181525351</v>
+        <v>0.005296295282979813</v>
       </c>
       <c r="J22">
-        <v>0.7529593370209682</v>
+        <v>0.2835047571702916</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.2384261050709817</v>
       </c>
       <c r="L22">
-        <v>2.052572933273638</v>
+        <v>0.1593706821678111</v>
       </c>
       <c r="M22">
-        <v>1.432374550767577</v>
+        <v>3.275800050908401</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.683185754643574</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.8835362638008704</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.320947050897274</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.933306342863375</v>
+        <v>0.4533056385276382</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1540797656264843</v>
+        <v>0.2733463579451438</v>
       </c>
       <c r="E23">
-        <v>0.3798572262024464</v>
+        <v>0.1690690401439205</v>
       </c>
       <c r="F23">
-        <v>0.6874474011707434</v>
+        <v>0.6949365691212037</v>
       </c>
       <c r="G23">
-        <v>0.0007634508943692527</v>
+        <v>0.3605131646986734</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.001846292442668651</v>
       </c>
       <c r="I23">
-        <v>0.2718211548768572</v>
+        <v>0.005521448790599237</v>
       </c>
       <c r="J23">
-        <v>0.7315624826764378</v>
+        <v>0.2824857151796039</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.242536480135545</v>
       </c>
       <c r="L23">
-        <v>1.977264895325362</v>
+        <v>0.1560354603815171</v>
       </c>
       <c r="M23">
-        <v>1.379951031100489</v>
+        <v>3.15785924425046</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.600243125090344</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.8508635641554818</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.3053714741325</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.371398437687105</v>
+        <v>0.3888621776161898</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1459000977917952</v>
+        <v>0.2412991071485209</v>
       </c>
       <c r="E24">
-        <v>0.3428240502905453</v>
+        <v>0.1522625718909758</v>
       </c>
       <c r="F24">
-        <v>0.6329307918487999</v>
+        <v>0.6486086343348063</v>
       </c>
       <c r="G24">
-        <v>0.0007715116361129697</v>
+        <v>0.3360512137788731</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0004981454488603987</v>
       </c>
       <c r="I24">
-        <v>0.2967880531074449</v>
+        <v>0.007172794803381954</v>
       </c>
       <c r="J24">
-        <v>0.6509013015597986</v>
+        <v>0.278345754493607</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.2593220242901744</v>
       </c>
       <c r="L24">
-        <v>1.693377306121022</v>
+        <v>0.1430265260686383</v>
       </c>
       <c r="M24">
-        <v>1.18234719764925</v>
+        <v>2.727787329885075</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.303198161305374</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.73057413120533</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.244389445733191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.769834738888278</v>
+        <v>0.318319957492406</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1372892204545622</v>
+        <v>0.2069714104102189</v>
       </c>
       <c r="E25">
-        <v>0.3032357615869614</v>
+        <v>0.1341674716948731</v>
       </c>
       <c r="F25">
-        <v>0.5844525065683186</v>
+        <v>0.6015788476203596</v>
       </c>
       <c r="G25">
-        <v>0.0007805069232853861</v>
+        <v>0.3120861899292464</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>8.615572286707618E-07</v>
       </c>
       <c r="I25">
-        <v>0.3303275172628766</v>
+        <v>0.009484738572321127</v>
       </c>
       <c r="J25">
-        <v>0.5645496813340571</v>
+        <v>0.2753374054297879</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.2789589410572217</v>
       </c>
       <c r="L25">
-        <v>1.389255266554756</v>
+        <v>0.1289125546452539</v>
       </c>
       <c r="M25">
-        <v>0.9706977200262159</v>
+        <v>2.266305559687396</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.014317153074103</v>
+        <v>0.6015360142747213</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.186767157680578</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_16/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2737769709944331</v>
+        <v>0.2981508554241401</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1814974378678045</v>
+        <v>0.1806359500921388</v>
       </c>
       <c r="E2">
-        <v>0.1210838434946346</v>
+        <v>0.1211884536576164</v>
       </c>
       <c r="F2">
-        <v>0.5728608524985859</v>
+        <v>0.579086715208426</v>
       </c>
       <c r="G2">
-        <v>0.2991745357103923</v>
+        <v>0.2864851389311767</v>
       </c>
       <c r="H2">
-        <v>0.0003578412337370551</v>
+        <v>0.0003084347794135578</v>
       </c>
       <c r="I2">
-        <v>0.010758862734221</v>
+        <v>0.006369550713137606</v>
       </c>
       <c r="J2">
-        <v>0.2758283270692772</v>
+        <v>0.3131655254836119</v>
       </c>
       <c r="K2">
-        <v>0.2943500116667472</v>
+        <v>0.258898488407147</v>
       </c>
       <c r="L2">
-        <v>0.118945785598811</v>
+        <v>0.1143427303265408</v>
       </c>
       <c r="M2">
-        <v>1.906105375559918</v>
+        <v>0.08327664105071619</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1193059821870932</v>
       </c>
       <c r="O2">
-        <v>0.5025576803871701</v>
+        <v>1.843366940346158</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.160015269176853</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4939912001557545</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.176204724048532</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2382421739516047</v>
+        <v>0.264588374123079</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1645133888203674</v>
+        <v>0.163699477190633</v>
       </c>
       <c r="E3">
-        <v>0.1120597766944762</v>
+        <v>0.1123085625565103</v>
       </c>
       <c r="F3">
-        <v>0.5525384343588442</v>
+        <v>0.5590167015922418</v>
       </c>
       <c r="G3">
-        <v>0.2897563600070256</v>
+        <v>0.2778434387258244</v>
       </c>
       <c r="H3">
-        <v>0.001003786397104744</v>
+        <v>0.0009035380542892213</v>
       </c>
       <c r="I3">
-        <v>0.01230162804133528</v>
+        <v>0.007326803035626828</v>
       </c>
       <c r="J3">
-        <v>0.2759211182378394</v>
+        <v>0.3110699548293212</v>
       </c>
       <c r="K3">
-        <v>0.3057455493531949</v>
+        <v>0.2682973533817341</v>
       </c>
       <c r="L3">
-        <v>0.1118102960645189</v>
+        <v>0.1178207954293009</v>
       </c>
       <c r="M3">
-        <v>1.675310569900205</v>
+        <v>0.08865020407750546</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1123728297653166</v>
       </c>
       <c r="O3">
-        <v>0.4382190173889597</v>
+        <v>1.608402986490404</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.139953096663007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.428824006951281</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.156408470057102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2160174415183889</v>
+        <v>0.243453812324546</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1541211038375678</v>
+        <v>0.1533428004008215</v>
       </c>
       <c r="E4">
-        <v>0.1065014541913101</v>
+        <v>0.1068374485040522</v>
       </c>
       <c r="F4">
-        <v>0.5405662900461152</v>
+        <v>0.5471358215274549</v>
       </c>
       <c r="G4">
-        <v>0.2843770003835502</v>
+        <v>0.272983601331461</v>
       </c>
       <c r="H4">
-        <v>0.001584808442198438</v>
+        <v>0.001445147944353353</v>
       </c>
       <c r="I4">
-        <v>0.01336942587177115</v>
+        <v>0.008009934578535827</v>
       </c>
       <c r="J4">
-        <v>0.2762554503282431</v>
+        <v>0.3099089570121976</v>
       </c>
       <c r="K4">
-        <v>0.3130914826928857</v>
+        <v>0.274385934563774</v>
       </c>
       <c r="L4">
-        <v>0.1073766269562313</v>
+        <v>0.1204040258946386</v>
       </c>
       <c r="M4">
-        <v>1.534195701769505</v>
+        <v>0.09224139138776177</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1080592451854514</v>
       </c>
       <c r="O4">
-        <v>0.3988590489669974</v>
+        <v>1.465015511608982</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.129063264615297</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3890073833625394</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.145496324215912</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2060113892004551</v>
+        <v>0.2339152823412292</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1499309683287748</v>
+        <v>0.1491645890670554</v>
       </c>
       <c r="E5">
-        <v>0.104205829476026</v>
+        <v>0.1045797137690947</v>
       </c>
       <c r="F5">
-        <v>0.5354200200457271</v>
+        <v>0.5420491233001599</v>
       </c>
       <c r="G5">
-        <v>0.2819718300058867</v>
+        <v>0.2708314447551459</v>
       </c>
       <c r="H5">
-        <v>0.001865985606259057</v>
+        <v>0.001708302125997929</v>
       </c>
       <c r="I5">
-        <v>0.0139237500440248</v>
+        <v>0.008409715998634049</v>
       </c>
       <c r="J5">
-        <v>0.2762916138860447</v>
+        <v>0.3093107119659351</v>
       </c>
       <c r="K5">
-        <v>0.3161744792379588</v>
+        <v>0.276902902588791</v>
       </c>
       <c r="L5">
-        <v>0.105500769321015</v>
+        <v>0.1214666342542996</v>
       </c>
       <c r="M5">
-        <v>1.479055850455865</v>
+        <v>0.09384644961150368</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1062367121210563</v>
       </c>
       <c r="O5">
-        <v>0.3833036361593045</v>
+        <v>1.408742440068124</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.123962605487321</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3732247956280688</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.140434706515833</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2033065187598737</v>
+        <v>0.2313527211069157</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1492806499811934</v>
+        <v>0.1485111457445072</v>
       </c>
       <c r="E6">
-        <v>0.1037930280547208</v>
+        <v>0.1041764459858925</v>
       </c>
       <c r="F6">
-        <v>0.5340966963229903</v>
+        <v>0.540781615966111</v>
       </c>
       <c r="G6">
-        <v>0.2811998585846425</v>
+        <v>0.2701408574933097</v>
       </c>
       <c r="H6">
-        <v>0.001915498669536664</v>
+        <v>0.001754714957539538</v>
       </c>
       <c r="I6">
-        <v>0.01413442078148908</v>
+        <v>0.008606136750893612</v>
       </c>
       <c r="J6">
-        <v>0.276096668240811</v>
+        <v>0.30902286226695</v>
       </c>
       <c r="K6">
-        <v>0.3167006222186739</v>
+        <v>0.2772780459219994</v>
       </c>
       <c r="L6">
-        <v>0.1051207180991618</v>
+        <v>0.1215279185169571</v>
       </c>
       <c r="M6">
-        <v>1.472643574804579</v>
+        <v>0.09420132497954992</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1058720915627624</v>
       </c>
       <c r="O6">
-        <v>0.3812762404419558</v>
+        <v>1.401801668858013</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.121905056451823</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3710935909198341</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.138496285928071</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2130366103086629</v>
+        <v>0.2409944892200002</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1541875370410537</v>
+        <v>0.1535945187148542</v>
       </c>
       <c r="E7">
-        <v>0.1063851635118205</v>
+        <v>0.1067671612778405</v>
       </c>
       <c r="F7">
-        <v>0.5391992924199371</v>
+        <v>0.545021527302076</v>
       </c>
       <c r="G7">
-        <v>0.2833133654263875</v>
+        <v>0.2743079867009044</v>
       </c>
       <c r="H7">
-        <v>0.00158890949058843</v>
+        <v>0.001451773122362332</v>
       </c>
       <c r="I7">
-        <v>0.01367955957284028</v>
+        <v>0.008350559952043923</v>
       </c>
       <c r="J7">
-        <v>0.2756980600468424</v>
+        <v>0.3057731939029154</v>
       </c>
       <c r="K7">
-        <v>0.3131660974401962</v>
+        <v>0.2742863802884874</v>
       </c>
       <c r="L7">
-        <v>0.1071666525250876</v>
+        <v>0.120074283103464</v>
       </c>
       <c r="M7">
-        <v>1.540943326336475</v>
+        <v>0.09249941084463753</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1078373147398359</v>
       </c>
       <c r="O7">
-        <v>0.4001642431845411</v>
+        <v>1.469877440039681</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.125640779842598</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3900255175565448</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.139986524197425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2578046835358663</v>
+        <v>0.2842528824622264</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1757964989944441</v>
+        <v>0.1756014765403364</v>
       </c>
       <c r="E8">
-        <v>0.1178632497222765</v>
+        <v>0.1181551278276451</v>
       </c>
       <c r="F8">
-        <v>0.5640426206386522</v>
+        <v>0.5676375346080249</v>
       </c>
       <c r="G8">
-        <v>0.2944881051956401</v>
+        <v>0.2898404504977847</v>
       </c>
       <c r="H8">
-        <v>0.0005412539511092662</v>
+        <v>0.0004809316323937107</v>
       </c>
       <c r="I8">
-        <v>0.01163181013925296</v>
+        <v>0.007091676894209975</v>
       </c>
       <c r="J8">
-        <v>0.2750736804164333</v>
+        <v>0.3000048790237813</v>
       </c>
       <c r="K8">
-        <v>0.2983042324647975</v>
+        <v>0.2619897533002722</v>
       </c>
       <c r="L8">
-        <v>0.1162527040173416</v>
+        <v>0.1151120729528212</v>
       </c>
       <c r="M8">
-        <v>1.836403847226393</v>
+        <v>0.08533306540455143</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1166095201079358</v>
       </c>
       <c r="O8">
-        <v>0.4823598699276417</v>
+        <v>1.767811849489107</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.148402383926168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4729142048457504</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.157203820222563</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3474301218731739</v>
+        <v>0.368409632893929</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2182845626930572</v>
+        <v>0.2182172607396922</v>
       </c>
       <c r="E9">
-        <v>0.140412597659278</v>
+        <v>0.140366890211979</v>
       </c>
       <c r="F9">
-        <v>0.6193338716527137</v>
+        <v>0.6209970025751517</v>
       </c>
       <c r="G9">
-        <v>0.3216658159049715</v>
+        <v>0.3173924806496657</v>
       </c>
       <c r="H9">
-        <v>4.956379685649992E-05</v>
+        <v>5.95349991818761E-05</v>
       </c>
       <c r="I9">
-        <v>0.008143714011739078</v>
+        <v>0.004882716412427435</v>
       </c>
       <c r="J9">
-        <v>0.277131900411284</v>
+        <v>0.3033643707172615</v>
       </c>
       <c r="K9">
-        <v>0.2718702856838053</v>
+        <v>0.2405945528154341</v>
       </c>
       <c r="L9">
-        <v>0.1340083375905508</v>
+        <v>0.1094153849625945</v>
       </c>
       <c r="M9">
-        <v>2.407700273012694</v>
+        <v>0.07325169555372435</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1337946146036799</v>
       </c>
       <c r="O9">
-        <v>0.642154603503883</v>
+        <v>2.351163659314466</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.211009949665751</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.6351500912769481</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.215576332967771</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4117385689423259</v>
+        <v>0.4311560679150688</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2446400924723235</v>
+        <v>0.2458475957645305</v>
       </c>
       <c r="E10">
-        <v>0.1510250608904791</v>
+        <v>0.150970822807956</v>
       </c>
       <c r="F10">
-        <v>0.6519344214868568</v>
+        <v>0.6472449176857822</v>
       </c>
       <c r="G10">
-        <v>0.3379599672256788</v>
+        <v>0.3482972664264281</v>
       </c>
       <c r="H10">
-        <v>0.0009001221551772076</v>
+        <v>0.0009031738871856376</v>
       </c>
       <c r="I10">
-        <v>0.006409654459209158</v>
+        <v>0.003967333241456039</v>
       </c>
       <c r="J10">
-        <v>0.2771032832312414</v>
+        <v>0.2845465683549548</v>
       </c>
       <c r="K10">
-        <v>0.2547107860369149</v>
+        <v>0.227015293983853</v>
       </c>
       <c r="L10">
-        <v>0.1401866076363234</v>
+        <v>0.1077186066977642</v>
       </c>
       <c r="M10">
-        <v>2.836802416697395</v>
+        <v>0.06585803635351795</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1394209485127647</v>
       </c>
       <c r="O10">
-        <v>0.7505010227042845</v>
+        <v>2.781929712809159</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.245954903233127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.7443685108682274</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.233838827783302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4543231818851297</v>
+        <v>0.4851202488338231</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.213388283634913</v>
+        <v>0.2165617638865314</v>
       </c>
       <c r="E11">
-        <v>0.1106260764580682</v>
+        <v>0.1108638877882058</v>
       </c>
       <c r="F11">
-        <v>0.5781051677401692</v>
+        <v>0.5663062396202463</v>
       </c>
       <c r="G11">
-        <v>0.297105534548507</v>
+        <v>0.3376451334522557</v>
       </c>
       <c r="H11">
-        <v>0.01942297595211784</v>
+        <v>0.01940005116473031</v>
       </c>
       <c r="I11">
-        <v>0.006386206369044523</v>
+        <v>0.004301721379647461</v>
       </c>
       <c r="J11">
-        <v>0.2527159668898662</v>
+        <v>0.2301019838017027</v>
       </c>
       <c r="K11">
-        <v>0.2524042039680072</v>
+        <v>0.2257850572961484</v>
       </c>
       <c r="L11">
-        <v>0.0979159203192097</v>
+        <v>0.1099408859868287</v>
       </c>
       <c r="M11">
-        <v>3.055795202164887</v>
+        <v>0.06363775879807498</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.09692400747556462</v>
       </c>
       <c r="O11">
-        <v>0.7086487964385455</v>
+        <v>2.970372612613346</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.108453480641032</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6982341360979945</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.076682490754649</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.482543715174728</v>
+        <v>0.5223450253312762</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.183380084479154</v>
+        <v>0.187036495492535</v>
       </c>
       <c r="E12">
-        <v>0.08245596927292986</v>
+        <v>0.08260500747683075</v>
       </c>
       <c r="F12">
-        <v>0.5139675979590024</v>
+        <v>0.5008834594391516</v>
       </c>
       <c r="G12">
-        <v>0.2623101416052975</v>
+        <v>0.3146352679029434</v>
       </c>
       <c r="H12">
-        <v>0.05796725910177969</v>
+        <v>0.05793720560360072</v>
       </c>
       <c r="I12">
-        <v>0.006207601083903391</v>
+        <v>0.004198263006855996</v>
       </c>
       <c r="J12">
-        <v>0.2335623128078339</v>
+        <v>0.2045509931147542</v>
       </c>
       <c r="K12">
-        <v>0.2557212801520841</v>
+        <v>0.2287647267952018</v>
       </c>
       <c r="L12">
-        <v>0.07770234995479441</v>
+        <v>0.1126049767257626</v>
       </c>
       <c r="M12">
-        <v>3.137817328106564</v>
+        <v>0.06360761801261372</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.07653628790702882</v>
       </c>
       <c r="O12">
-        <v>0.6494692080902738</v>
+        <v>3.030342566944938</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.9946361637131815</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.6362063638263322</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.9589815154325692</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4965640546107579</v>
+        <v>0.5434092060369835</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1529314264577692</v>
+        <v>0.1557302088333898</v>
       </c>
       <c r="E13">
-        <v>0.06193782811359583</v>
+        <v>0.06177869918981926</v>
       </c>
       <c r="F13">
-        <v>0.4515854254639251</v>
+        <v>0.4427262969311059</v>
       </c>
       <c r="G13">
-        <v>0.2284972813107231</v>
+        <v>0.2746278613183222</v>
       </c>
       <c r="H13">
-        <v>0.1135119551673398</v>
+        <v>0.1134896434883359</v>
       </c>
       <c r="I13">
-        <v>0.006307794556431823</v>
+        <v>0.004228381031451178</v>
       </c>
       <c r="J13">
-        <v>0.2164002693322473</v>
+        <v>0.1969705668747608</v>
       </c>
       <c r="K13">
-        <v>0.2634198884703007</v>
+        <v>0.2343458457892673</v>
       </c>
       <c r="L13">
-        <v>0.07275125679997441</v>
+        <v>0.1149525905489419</v>
       </c>
       <c r="M13">
-        <v>3.13029451395613</v>
+        <v>0.06530108027909431</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.07137741876938364</v>
       </c>
       <c r="O13">
-        <v>0.5763747538940649</v>
+        <v>3.007525611317021</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.8869833220829548</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.5611989596791247</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.8624564334632794</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4989750450999111</v>
+        <v>0.5499406258160491</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.13192510054796</v>
+        <v>0.1337018373988315</v>
       </c>
       <c r="E14">
-        <v>0.05216985516803874</v>
+        <v>0.05176464710376116</v>
       </c>
       <c r="F14">
-        <v>0.4092064998271425</v>
+        <v>0.4051158308491409</v>
       </c>
       <c r="G14">
-        <v>0.2054551962787485</v>
+        <v>0.2407172666463779</v>
       </c>
       <c r="H14">
-        <v>0.1627015269700394</v>
+        <v>0.1626882232376659</v>
       </c>
       <c r="I14">
-        <v>0.006596815477260876</v>
+        <v>0.004415209859693014</v>
       </c>
       <c r="J14">
-        <v>0.2053336093953249</v>
+        <v>0.1977076684767987</v>
       </c>
       <c r="K14">
-        <v>0.2711527949068717</v>
+        <v>0.2394839207516757</v>
       </c>
       <c r="L14">
-        <v>0.07826781163699614</v>
+        <v>0.1163577447757511</v>
       </c>
       <c r="M14">
-        <v>3.086847301860331</v>
+        <v>0.06740573983700848</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.07663991020292116</v>
       </c>
       <c r="O14">
-        <v>0.5200403467897985</v>
+        <v>2.956073148568521</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.814897126793781</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.5039269341673602</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.8032238485885159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4950451444381088</v>
+        <v>0.5466483130950621</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1265211195825628</v>
+        <v>0.1278735209202253</v>
       </c>
       <c r="E15">
-        <v>0.05038293191017384</v>
+        <v>0.0499233547135054</v>
       </c>
       <c r="F15">
-        <v>0.398566654275804</v>
+        <v>0.3964543076574145</v>
       </c>
       <c r="G15">
-        <v>0.1995924084271223</v>
+        <v>0.2296340878325438</v>
       </c>
       <c r="H15">
-        <v>0.1751459061424328</v>
+        <v>0.1751364658012449</v>
       </c>
       <c r="I15">
-        <v>0.006861319200012872</v>
+        <v>0.004641379603441464</v>
       </c>
       <c r="J15">
-        <v>0.2028379244354639</v>
+        <v>0.2004106371579795</v>
       </c>
       <c r="K15">
-        <v>0.2740334266719771</v>
+        <v>0.2412933797869918</v>
       </c>
       <c r="L15">
-        <v>0.08069522745895696</v>
+        <v>0.116587807315911</v>
       </c>
       <c r="M15">
-        <v>3.060332224318216</v>
+        <v>0.06834058765707773</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.07899655985514187</v>
       </c>
       <c r="O15">
-        <v>0.5037999414459762</v>
+        <v>2.928563342925912</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.7972068983346787</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.4875366995440302</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.7909339625706195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4621529479323243</v>
+        <v>0.509786461670501</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1222137054137704</v>
+        <v>0.1220324309337713</v>
       </c>
       <c r="E16">
-        <v>0.05045810234775683</v>
+        <v>0.05004319294534021</v>
       </c>
       <c r="F16">
-        <v>0.3970718309785966</v>
+        <v>0.4019686576456891</v>
       </c>
       <c r="G16">
-        <v>0.1989275712392029</v>
+        <v>0.2075858349970829</v>
       </c>
       <c r="H16">
-        <v>0.1621049893109472</v>
+        <v>0.1621065693260846</v>
       </c>
       <c r="I16">
-        <v>0.007704047875753517</v>
+        <v>0.005182816241847021</v>
       </c>
       <c r="J16">
-        <v>0.2059007859127533</v>
+        <v>0.2256063014784928</v>
       </c>
       <c r="K16">
-        <v>0.2789296473295249</v>
+        <v>0.2436799242436489</v>
       </c>
       <c r="L16">
-        <v>0.07898636646152823</v>
+        <v>0.1145539349213536</v>
       </c>
       <c r="M16">
-        <v>2.880581754570727</v>
+        <v>0.07126404961069177</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.07746299028446657</v>
       </c>
       <c r="O16">
-        <v>0.4749304899293207</v>
+        <v>2.760189273418433</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.8020190493754455</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.4596156132684612</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.815065703764958</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4356011097004995</v>
+        <v>0.4786409265845037</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1297514183339672</v>
+        <v>0.1289936380305789</v>
       </c>
       <c r="E17">
-        <v>0.05490442816781194</v>
+        <v>0.05459027341893563</v>
       </c>
       <c r="F17">
-        <v>0.4180509154408867</v>
+        <v>0.4254501687528816</v>
       </c>
       <c r="G17">
-        <v>0.2104981970951343</v>
+        <v>0.2103794054605927</v>
       </c>
       <c r="H17">
-        <v>0.1241858198114301</v>
+        <v>0.1241869560652731</v>
       </c>
       <c r="I17">
-        <v>0.008234131717877347</v>
+        <v>0.005534894202394725</v>
       </c>
       <c r="J17">
-        <v>0.214094928100927</v>
+        <v>0.2442020847600332</v>
       </c>
       <c r="K17">
-        <v>0.2786223117005555</v>
+        <v>0.2433081702352382</v>
       </c>
       <c r="L17">
-        <v>0.0732946327400672</v>
+        <v>0.112751231453748</v>
       </c>
       <c r="M17">
-        <v>2.766561268330946</v>
+        <v>0.07237986789451156</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.07212793265160045</v>
       </c>
       <c r="O17">
-        <v>0.4823030659085603</v>
+        <v>2.657419916749831</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.8435939510597734</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.4680285836129201</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.8635342714609635</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4145528792936233</v>
+        <v>0.4511161716542205</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1494461340230799</v>
+        <v>0.1485177868995038</v>
       </c>
       <c r="E18">
-        <v>0.06764025941347285</v>
+        <v>0.0674236240521271</v>
       </c>
       <c r="F18">
-        <v>0.4633352408904159</v>
+        <v>0.4709894290417012</v>
       </c>
       <c r="G18">
-        <v>0.2354416526635674</v>
+        <v>0.2309783717610046</v>
       </c>
       <c r="H18">
-        <v>0.07133702044819046</v>
+        <v>0.07133813797646127</v>
       </c>
       <c r="I18">
-        <v>0.008203973610682702</v>
+        <v>0.00537878109726897</v>
       </c>
       <c r="J18">
-        <v>0.2283407513741409</v>
+        <v>0.2629208484082284</v>
       </c>
       <c r="K18">
-        <v>0.2740479464863199</v>
+        <v>0.2403938611287657</v>
       </c>
       <c r="L18">
-        <v>0.07151491605018673</v>
+        <v>0.1108541162790804</v>
       </c>
       <c r="M18">
-        <v>2.689082485194319</v>
+        <v>0.07193314131720552</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.07082278774883555</v>
       </c>
       <c r="O18">
-        <v>0.5216450405242696</v>
+        <v>2.595265193121776</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.9262492701430318</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.5090762383000325</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.946910494181509</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3940497841749249</v>
+        <v>0.4234822496556632</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1796192640222642</v>
+        <v>0.1787543445392572</v>
       </c>
       <c r="E19">
-        <v>0.0920825071732132</v>
+        <v>0.09191508883950306</v>
       </c>
       <c r="F19">
-        <v>0.5260536121719852</v>
+        <v>0.5325920377411677</v>
       </c>
       <c r="G19">
-        <v>0.2694180938910407</v>
+        <v>0.2627704324468922</v>
       </c>
       <c r="H19">
-        <v>0.02618573039497107</v>
+        <v>0.0261915455633428</v>
       </c>
       <c r="I19">
-        <v>0.00832042835337532</v>
+        <v>0.005523579157555858</v>
       </c>
       <c r="J19">
-        <v>0.2462560013575725</v>
+        <v>0.2818563433897054</v>
       </c>
       <c r="K19">
-        <v>0.2690623473088873</v>
+        <v>0.237320380023192</v>
       </c>
       <c r="L19">
-        <v>0.08482472990556644</v>
+        <v>0.1095347496193222</v>
       </c>
       <c r="M19">
-        <v>2.661679312847383</v>
+        <v>0.07093205584328999</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.08448845249906611</v>
       </c>
       <c r="O19">
-        <v>0.5884814962118625</v>
+        <v>2.584175290820525</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.035792427330009</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5780371489470681</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.053493925721995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3859918802540108</v>
+        <v>0.4055697619281631</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2378718028567448</v>
+        <v>0.2379572255951956</v>
       </c>
       <c r="E20">
-        <v>0.1477337741366576</v>
+        <v>0.1475683751061503</v>
       </c>
       <c r="F20">
-        <v>0.6388155986418553</v>
+        <v>0.6393747712312887</v>
       </c>
       <c r="G20">
-        <v>0.3301708913052792</v>
+        <v>0.3284495780917069</v>
       </c>
       <c r="H20">
-        <v>0.0005823973326868348</v>
+        <v>0.0005960948274039701</v>
       </c>
       <c r="I20">
-        <v>0.007727240907781763</v>
+        <v>0.005208779008091469</v>
       </c>
       <c r="J20">
-        <v>0.2752283465666636</v>
+        <v>0.2996081911279802</v>
       </c>
       <c r="K20">
-        <v>0.259741993853372</v>
+        <v>0.2308786764480582</v>
       </c>
       <c r="L20">
-        <v>0.1377389274276197</v>
+        <v>0.1081296891213546</v>
       </c>
       <c r="M20">
-        <v>2.747997220496757</v>
+        <v>0.06788144044380173</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1372737556294368</v>
       </c>
       <c r="O20">
-        <v>0.7263448710459244</v>
+        <v>2.693274327631798</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.22539980485999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.7197997879213105</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.227347446247663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.433352036431927</v>
+        <v>0.4562603213069281</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2661555213545483</v>
+        <v>0.2713595948459329</v>
       </c>
       <c r="E21">
-        <v>0.165040026541007</v>
+        <v>0.1656479881436006</v>
       </c>
       <c r="F21">
-        <v>0.681813939530322</v>
+        <v>0.6601656241623459</v>
       </c>
       <c r="G21">
-        <v>0.3529362114042698</v>
+        <v>0.4098124565679342</v>
       </c>
       <c r="H21">
-        <v>0.001464562270213965</v>
+        <v>0.001415775829195276</v>
       </c>
       <c r="I21">
-        <v>0.006384803432833763</v>
+        <v>0.004454350158543896</v>
       </c>
       <c r="J21">
-        <v>0.280492181757154</v>
+        <v>0.2356856702061947</v>
       </c>
       <c r="K21">
-        <v>0.2467027921149478</v>
+        <v>0.2213638893973595</v>
       </c>
       <c r="L21">
-        <v>0.1527172310218248</v>
+        <v>0.1079860743025733</v>
       </c>
       <c r="M21">
-        <v>3.072227633630746</v>
+        <v>0.06247472274239829</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1512604423487574</v>
       </c>
       <c r="O21">
-        <v>0.8258144359856843</v>
+        <v>3.004345996170542</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.285032827697933</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.8186309685616706</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.22742063855739</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4686835728342373</v>
+        <v>0.4944687113495831</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2819077594433566</v>
+        <v>0.2909348408522447</v>
       </c>
       <c r="E22">
-        <v>0.1734715456588276</v>
+        <v>0.1746919458012961</v>
       </c>
       <c r="F22">
-        <v>0.7069285895123869</v>
+        <v>0.6691806207101934</v>
       </c>
       <c r="G22">
-        <v>0.366798433499568</v>
+        <v>0.469869474380431</v>
       </c>
       <c r="H22">
-        <v>0.002333478069938999</v>
+        <v>0.002214522849498857</v>
       </c>
       <c r="I22">
-        <v>0.005296295282979813</v>
+        <v>0.003653384512630531</v>
       </c>
       <c r="J22">
-        <v>0.2835047571702916</v>
+        <v>0.1998132664951058</v>
       </c>
       <c r="K22">
-        <v>0.2384261050709817</v>
+        <v>0.2155196643468393</v>
       </c>
       <c r="L22">
-        <v>0.1593706821678111</v>
+        <v>0.1084149851457408</v>
       </c>
       <c r="M22">
-        <v>3.275800050908401</v>
+        <v>0.05912802645440696</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1572319302104717</v>
       </c>
       <c r="O22">
-        <v>0.8835362638008704</v>
+        <v>3.197666238385239</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.320947050897274</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.8757632621477569</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.220377995675648</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4533056385276382</v>
+        <v>0.4763435504787878</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2733463579451438</v>
+        <v>0.2797549713947092</v>
       </c>
       <c r="E23">
-        <v>0.1690690401439205</v>
+        <v>0.169831046786161</v>
       </c>
       <c r="F23">
-        <v>0.6949365691212037</v>
+        <v>0.6679201981712239</v>
       </c>
       <c r="G23">
-        <v>0.3605131646986734</v>
+        <v>0.4314117017756871</v>
       </c>
       <c r="H23">
-        <v>0.001846292442668651</v>
+        <v>0.001772546751135584</v>
       </c>
       <c r="I23">
-        <v>0.005521448790599237</v>
+        <v>0.003672211463054964</v>
       </c>
       <c r="J23">
-        <v>0.2824857151796039</v>
+        <v>0.2241973436275515</v>
       </c>
       <c r="K23">
-        <v>0.242536480135545</v>
+        <v>0.2182061163512969</v>
       </c>
       <c r="L23">
-        <v>0.1560354603815171</v>
+        <v>0.1078985629377893</v>
       </c>
       <c r="M23">
-        <v>3.15785924425046</v>
+        <v>0.06084740931879828</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1543017203921764</v>
       </c>
       <c r="O23">
-        <v>0.8508635641554818</v>
+        <v>3.088918927398424</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.3053714741325</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.8439140153690943</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.233434777623103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3888621776161898</v>
+        <v>0.4072293792109036</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2412991071485209</v>
+        <v>0.2414002411736362</v>
       </c>
       <c r="E24">
-        <v>0.1522625718909758</v>
+        <v>0.1520677914673385</v>
       </c>
       <c r="F24">
-        <v>0.6486086343348063</v>
+        <v>0.648826045159737</v>
       </c>
       <c r="G24">
-        <v>0.3360512137788731</v>
+        <v>0.3335449368690462</v>
       </c>
       <c r="H24">
-        <v>0.0004981454488603987</v>
+        <v>0.0005127417043364613</v>
       </c>
       <c r="I24">
-        <v>0.007172794803381954</v>
+        <v>0.00456648293518036</v>
       </c>
       <c r="J24">
-        <v>0.278345754493607</v>
+        <v>0.3031039535844613</v>
       </c>
       <c r="K24">
-        <v>0.2593220242901744</v>
+        <v>0.2305728287807165</v>
       </c>
       <c r="L24">
-        <v>0.1430265260686383</v>
+        <v>0.1079617563831539</v>
       </c>
       <c r="M24">
-        <v>2.727787329885075</v>
+        <v>0.06781857951468906</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1425145987789946</v>
       </c>
       <c r="O24">
-        <v>0.73057413120533</v>
+        <v>2.676478082449876</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.244389445733191</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.7246581091549587</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.245482156022945</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.318319957492406</v>
+        <v>0.3408700348824709</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2069714104102189</v>
+        <v>0.2065478513175947</v>
       </c>
       <c r="E25">
-        <v>0.1341674716948731</v>
+        <v>0.1341752355250776</v>
       </c>
       <c r="F25">
-        <v>0.6015788476203596</v>
+        <v>0.605313406537185</v>
       </c>
       <c r="G25">
-        <v>0.3120861899292464</v>
+        <v>0.3045321064326743</v>
       </c>
       <c r="H25">
-        <v>8.615572286707618E-07</v>
+        <v>1.284380157784426E-09</v>
       </c>
       <c r="I25">
-        <v>0.009484738572321127</v>
+        <v>0.005965197323643423</v>
       </c>
       <c r="J25">
-        <v>0.2753374054297879</v>
+        <v>0.3064102806137967</v>
       </c>
       <c r="K25">
-        <v>0.2789589410572217</v>
+        <v>0.2462138493796049</v>
       </c>
       <c r="L25">
-        <v>0.1289125546452539</v>
+        <v>0.1104947027270695</v>
       </c>
       <c r="M25">
-        <v>2.266305559687396</v>
+        <v>0.07642477569101924</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1289326114752427</v>
       </c>
       <c r="O25">
-        <v>0.6015360142747213</v>
+        <v>2.206035668321874</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.186767157680578</v>
+        <v>0.5936627830033743</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.196672904204846</v>
       </c>
     </row>
   </sheetData>
